--- a/GiaoDienDR.xlsx
+++ b/GiaoDienDR.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7370FB28-61A2-45E0-BBB0-E85CCDF67651}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3163425-65F1-4D56-ADFA-A7FB1E6D0A64}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,90 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
-  <si>
-    <t>skin cancer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t xml:space="preserve">Danh Sách Bệnh Nhân </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tuổi:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 22</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Tên:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Ngyễn Thiên Duy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Tên:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Ngyễn Duy Thiên</t>
-    </r>
   </si>
   <si>
     <t>Nguyễn Duy Thiên</t>
@@ -167,29 +86,60 @@
     <t>1. khởi động</t>
   </si>
   <si>
+    <t>4. Bấm vào xem ảnh da hệ thống hiển thị danh sách ảnh chụp da của bệnh nhân</t>
+  </si>
+  <si>
+    <t>6. Sau khi đã thoát ra khỏi danh sách ảnh da bấm vào xem câu trả lời của bệnh nhân tại mục 3</t>
+  </si>
+  <si>
+    <t>3. Công việc của bạn là  ?</t>
+  </si>
+  <si>
+    <t>9. Sau khi đã viết xong phản hồi bấm Gửi để gửi phản hồi</t>
+  </si>
+  <si>
+    <t>Kết Luận:</t>
+  </si>
+  <si>
+    <t>Điều Trị:</t>
+  </si>
+  <si>
+    <t>Gửi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>Đã đợi 3 ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bệnh Nhân Lựa Chọn</t>
+  </si>
+  <si>
+    <t>SkinCare</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">       </t>
+      <t xml:space="preserve">      </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>Giới Tính:</t>
+      <t xml:space="preserve"> Tên:</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> Nam</t>
+      <t xml:space="preserve"> Ngyễn Thiên Duy</t>
     </r>
   </si>
   <si>
@@ -201,41 +151,174 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>Giới Tính:</t>
+      <t>Tuổi:</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> Nử</t>
+      <t xml:space="preserve"> 22</t>
     </r>
   </si>
   <si>
-    <t>4. Bấm vào xem ảnh da hệ thống hiển thị danh sách ảnh chụp da của bệnh nhân</t>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Tên:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Ngyễn Duy Thiên</t>
+    </r>
   </si>
   <si>
-    <t>6. Sau khi đã thoát ra khỏi danh sách ảnh da bấm vào xem câu trả lời của bệnh nhân tại mục 3</t>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ngày gửi:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 27/9/2018</t>
+    </r>
   </si>
   <si>
-    <t>3. Công việc của bạn là  ?</t>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ngày gửi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: 26/9/2018</t>
+    </r>
   </si>
   <si>
-    <t>9. Sau khi đã viết xong phản hồi bấm Gửi để gửi phản hồi</t>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Bác sĩ: Văn Trọng Nghĩa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Danh sách bệnh nhân đang chờ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Danh sách bệnh nhân đã tơ vấn</t>
+  </si>
+  <si>
+    <t>Đăng xuât</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Nhận thêm bệnh nhân</t>
+  </si>
+  <si>
+    <t>Bệnh Nhân Đã Phản Hồi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ngày phản hồi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: 26/9/2018</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ngày phản hồi:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 27/9/2018</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,29 +336,6 @@
     <font>
       <b/>
       <sz val="36"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -312,8 +372,75 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="48"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,8 +489,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -479,11 +612,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -492,13 +634,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -509,76 +645,173 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,6 +819,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF88B6E0"/>
+      <color rgb="FF73A9DB"/>
+      <color rgb="FF1B6B6B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -625,8 +865,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2940801" y="6423684"/>
-          <a:ext cx="3128710" cy="6761486"/>
+          <a:off x="2939089" y="6361040"/>
+          <a:ext cx="3123573" cy="6694561"/>
           <a:chOff x="2933700" y="6296025"/>
           <a:chExt cx="3051519" cy="6640029"/>
         </a:xfrm>
@@ -872,8 +1112,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2940801" y="24938571"/>
-          <a:ext cx="3128710" cy="6718677"/>
+          <a:off x="2939089" y="24737940"/>
+          <a:ext cx="3123573" cy="6643761"/>
           <a:chOff x="2933700" y="6296025"/>
           <a:chExt cx="3051519" cy="6640029"/>
         </a:xfrm>
@@ -1154,9 +1394,9 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Xem Ảnh Da </a:t>
           </a:r>
@@ -1164,6 +1404,8 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1196,15 +1438,19 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3083214" y="19862586"/>
-          <a:ext cx="2807003" cy="563635"/>
+          <a:off x="3092174" y="27881585"/>
+          <a:ext cx="2809989" cy="561246"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
             <a:gd name="adj" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1247,9 +1493,9 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Xem</a:t>
           </a:r>
@@ -1259,9 +1505,9 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> Câu Trả Lời Về Bệnh</a:t>
           </a:r>
@@ -1270,6 +1516,8 @@
               <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -1279,6 +1527,8 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
@@ -1286,6 +1536,8 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1359,6 +1611,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Gửi</a:t>
           </a:r>
@@ -1367,6 +1621,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> Phản Hồi </a:t>
           </a:r>
@@ -1374,6 +1630,8 @@
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1406,8 +1664,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2940801" y="16333965"/>
-          <a:ext cx="3128710" cy="6804294"/>
+          <a:off x="2939089" y="16178140"/>
+          <a:ext cx="3123573" cy="6770761"/>
           <a:chOff x="2933700" y="6296025"/>
           <a:chExt cx="3051519" cy="6640029"/>
         </a:xfrm>
@@ -1653,8 +1911,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3218570" y="17225987"/>
-          <a:ext cx="168431" cy="136714"/>
+          <a:off x="3216430" y="17061600"/>
+          <a:ext cx="168431" cy="142565"/>
           <a:chOff x="1074466" y="28357204"/>
           <a:chExt cx="168431" cy="92926"/>
         </a:xfrm>
@@ -1908,8 +2166,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2940801" y="34998684"/>
-          <a:ext cx="3128710" cy="6718677"/>
+          <a:off x="2939089" y="34694740"/>
+          <a:ext cx="3123573" cy="6643761"/>
           <a:chOff x="2933700" y="6296025"/>
           <a:chExt cx="3051519" cy="6640029"/>
         </a:xfrm>
@@ -2287,8 +2545,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3072036" y="36152684"/>
-          <a:ext cx="2850387" cy="963201"/>
+          <a:off x="3069896" y="35835897"/>
+          <a:ext cx="2846106" cy="952499"/>
           <a:chOff x="799224" y="37443103"/>
           <a:chExt cx="2321034" cy="755431"/>
         </a:xfrm>
@@ -2457,8 +2715,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3072036" y="37170626"/>
-          <a:ext cx="2850387" cy="963202"/>
+          <a:off x="3069896" y="36843137"/>
+          <a:ext cx="2846106" cy="952500"/>
           <a:chOff x="799224" y="37443103"/>
           <a:chExt cx="2321034" cy="755431"/>
         </a:xfrm>
@@ -2627,8 +2885,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2940801" y="43517673"/>
-          <a:ext cx="3128710" cy="6718676"/>
+          <a:off x="2939089" y="43127540"/>
+          <a:ext cx="3123573" cy="6643761"/>
           <a:chOff x="2933700" y="6296025"/>
           <a:chExt cx="3051519" cy="6640029"/>
         </a:xfrm>
@@ -2925,7 +3183,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>350694</xdr:colOff>
       <xdr:row>254</xdr:row>
-      <xdr:rowOff>134627</xdr:rowOff>
+      <xdr:rowOff>134626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2990,8 +3248,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2940801" y="52421942"/>
-          <a:ext cx="3128710" cy="6718677"/>
+          <a:off x="2939089" y="51941340"/>
+          <a:ext cx="3123573" cy="6643761"/>
           <a:chOff x="2933700" y="6296025"/>
           <a:chExt cx="3051519" cy="6640029"/>
         </a:xfrm>
@@ -3510,8 +3768,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2940801" y="61326212"/>
-          <a:ext cx="3128710" cy="6718677"/>
+          <a:off x="2939089" y="60755140"/>
+          <a:ext cx="3123573" cy="6643761"/>
           <a:chOff x="2933700" y="6296025"/>
           <a:chExt cx="3051519" cy="6640029"/>
         </a:xfrm>
@@ -3792,9 +4050,9 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Xem Ảnh Da </a:t>
           </a:r>
@@ -3802,6 +4060,8 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -3834,8 +4094,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3088939" y="19973635"/>
-          <a:ext cx="2813871" cy="567069"/>
+          <a:off x="3074056" y="63761846"/>
+          <a:ext cx="2796012" cy="558140"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3885,9 +4145,9 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Xem</a:t>
           </a:r>
@@ -3897,9 +4157,9 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> Câu Trả Lời Về Bệnh</a:t>
           </a:r>
@@ -3908,6 +4168,8 @@
               <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -3997,6 +4259,8 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Gửi</a:t>
           </a:r>
@@ -4005,6 +4269,8 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> Phản Hồi </a:t>
           </a:r>
@@ -4012,6 +4278,8 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -4110,8 +4378,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2940801" y="70615762"/>
-          <a:ext cx="3128710" cy="6750784"/>
+          <a:off x="2939089" y="69949940"/>
+          <a:ext cx="3123573" cy="6681861"/>
           <a:chOff x="2933700" y="6296025"/>
           <a:chExt cx="3051519" cy="6640029"/>
         </a:xfrm>
@@ -4587,77 +4855,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>187100</xdr:colOff>
-      <xdr:row>368</xdr:row>
-      <xdr:rowOff>85045</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>595314</xdr:colOff>
-      <xdr:row>369</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="Rectangle 151">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C527FEAC-3C8B-4868-B8E5-F92C119EC358}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5544913" y="71420491"/>
-          <a:ext cx="408214" cy="280647"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Gửi</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>500689</xdr:colOff>
       <xdr:row>408</xdr:row>
@@ -4682,8 +4879,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2940801" y="79166858"/>
-          <a:ext cx="3128710" cy="6772188"/>
+          <a:off x="2939089" y="78420840"/>
+          <a:ext cx="3123573" cy="6707261"/>
           <a:chOff x="2933700" y="6296025"/>
           <a:chExt cx="3051519" cy="6640029"/>
         </a:xfrm>
@@ -5272,8 +5469,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3339101" y="83135056"/>
-          <a:ext cx="2354495" cy="10702"/>
+          <a:off x="3319643" y="79240897"/>
+          <a:ext cx="2344441" cy="10702"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5305,9 +5502,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>181938</xdr:colOff>
+      <xdr:colOff>226218</xdr:colOff>
       <xdr:row>418</xdr:row>
-      <xdr:rowOff>32106</xdr:rowOff>
+      <xdr:rowOff>35719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5322,8 +5519,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4088259" y="82835393"/>
-          <a:ext cx="824072" cy="278258"/>
+          <a:off x="4071403" y="80028862"/>
+          <a:ext cx="857784" cy="266888"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5363,6 +5560,8 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Thông</a:t>
           </a:r>
@@ -5443,14 +5642,23 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>Bạn</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t> có chắc muốn gửi phản hồi này cho bệnh nhân</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5604,6 +5812,2578 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>500689</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>23740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>482</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="92" name="Group 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA7DEB8-025F-4D68-929A-2C4EB681B93D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2939089" y="85913840"/>
+          <a:ext cx="3123573" cy="6643761"/>
+          <a:chOff x="2933700" y="6296025"/>
+          <a:chExt cx="3051519" cy="6640029"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="Rectangle: Rounded Corners 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFF2743-A240-48B8-B68B-994352A6A7BE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2933700" y="6296025"/>
+            <a:ext cx="3051519" cy="6640029"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="Rectangle 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A812F2-C0DE-4C96-B181-A942DD7E9C8F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="1879734" y="8189062"/>
+            <a:ext cx="5159450" cy="2844352"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="Oval 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A1D35D5-8A77-4DCE-85EE-8102A56CFCE3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4231254" y="12315025"/>
+            <a:ext cx="467140" cy="457676"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="Rectangle: Rounded Corners 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C625409-F79C-4E70-8F4E-844D66156CFB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4240780" y="6650034"/>
+            <a:ext cx="467139" cy="41578"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>388261</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>46642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466337</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>46642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC545740-642D-4479-BF2F-239FCF0F2E01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3446287" y="86653958"/>
+          <a:ext cx="78076" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>275724</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>85223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>363519</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>46641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Rectangle: Rounded Corners 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE6154DB-62B9-457D-A236-F033378E4AD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="86692539"/>
+          <a:ext cx="87795" cy="151918"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>170448</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>110289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>252190</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>46643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="Rectangle: Rounded Corners 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE74B41E-0F6E-4C70-8241-FD036C24F6B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228474" y="86717605"/>
+          <a:ext cx="81742" cy="126854"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66637</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>147480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>147043</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>46642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Rectangle: Rounded Corners 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79330EA4-D8F9-4D63-94BD-E37506CC24DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124663" y="86754796"/>
+          <a:ext cx="80406" cy="89662"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50133</xdr:colOff>
+      <xdr:row>459</xdr:row>
+      <xdr:rowOff>10025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561474</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>30078</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle: Rounded Corners 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0666CC56-296B-410A-A9BF-6E67CBBDD7E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3070255" y="86118348"/>
+          <a:ext cx="2776432" cy="1135175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>459</xdr:row>
+      <xdr:rowOff>140369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>411079</xdr:colOff>
+      <xdr:row>460</xdr:row>
+      <xdr:rowOff>150395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle: Rounded Corners 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06FA5AA-00A0-4C29-8C85-6C8D5101453F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248526" y="88251632"/>
+          <a:ext cx="220579" cy="200526"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>370973</xdr:colOff>
+      <xdr:row>459</xdr:row>
+      <xdr:rowOff>130342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>491288</xdr:colOff>
+      <xdr:row>461</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{467FBC8F-7632-4D3C-8033-7C99168E9DAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3428999" y="88241605"/>
+          <a:ext cx="731921" cy="250658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SkinCare</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>120316</xdr:colOff>
+      <xdr:row>460</xdr:row>
+      <xdr:rowOff>110289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>462</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35024FDF-7FD7-402C-8166-084685705E05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3178342" y="88412052"/>
+          <a:ext cx="1483895" cy="270711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Có</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> b</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>ệnh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> nhân mới!</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>120316</xdr:colOff>
+      <xdr:row>461</xdr:row>
+      <xdr:rowOff>150395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>591552</xdr:colOff>
+      <xdr:row>464</xdr:row>
+      <xdr:rowOff>40105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE513C79-D942-40D3-BE72-158170545CD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3178342" y="88642658"/>
+          <a:ext cx="2155657" cy="461210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Bệnh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> nhân Nguyễn Thiên Duy vừa gửi 1 yêu cầu xét ngiệm</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93842</xdr:colOff>
+      <xdr:row>477</xdr:row>
+      <xdr:rowOff>72753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>362323</xdr:colOff>
+      <xdr:row>477</xdr:row>
+      <xdr:rowOff>131069</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="Group 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E509402C-7681-48AB-B0D8-F81DAFB3983D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4361042" y="91677853"/>
+          <a:ext cx="268481" cy="58316"/>
+          <a:chOff x="4365946" y="90720574"/>
+          <a:chExt cx="268481" cy="58316"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="Oval 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56D62D81-9BDD-453D-90CD-F98B1BA3C6A9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4365946" y="90720879"/>
+            <a:ext cx="71821" cy="58011"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="Oval 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19681868-0830-4DFE-8343-8191BA9AF6AD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4462065" y="90720574"/>
+            <a:ext cx="71821" cy="58011"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="113" name="Oval 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A20327C-3D3A-4A21-BAC5-42452A274B4A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4562606" y="90720659"/>
+            <a:ext cx="71821" cy="58011"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>500689</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>23740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>523</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="116" name="Group 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD48E58-E9FA-48A4-A714-FCA58E58872F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2939089" y="93724340"/>
+          <a:ext cx="3123573" cy="6669161"/>
+          <a:chOff x="2933700" y="6296025"/>
+          <a:chExt cx="3051519" cy="6640029"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="117" name="Rectangle: Rounded Corners 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{386CB1C5-8DB2-459C-8455-1C1BE95F764B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2933700" y="6296025"/>
+            <a:ext cx="3051519" cy="6640029"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="118" name="Rectangle 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF26973F-0EE8-41B2-8624-E1386123FCFC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="1879734" y="8189062"/>
+            <a:ext cx="5159450" cy="2844352"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="119" name="Oval 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB28F650-5FB2-4180-A6F5-5886AC2EBF10}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4231254" y="12315025"/>
+            <a:ext cx="467140" cy="457676"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="120" name="Rectangle: Rounded Corners 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D80F255-6CF9-4F18-B76A-2DE2DD003EBE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4240780" y="6650034"/>
+            <a:ext cx="467139" cy="41578"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>168430</xdr:colOff>
+      <xdr:row>492</xdr:row>
+      <xdr:rowOff>145200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>336861</xdr:colOff>
+      <xdr:row>493</xdr:row>
+      <xdr:rowOff>46465</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="130" name="Group 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC325DE-2F86-4195-B722-BB25E087A128}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3216430" y="94607800"/>
+          <a:ext cx="168431" cy="91765"/>
+          <a:chOff x="1074466" y="28357204"/>
+          <a:chExt cx="168431" cy="92926"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="131" name="Straight Connector 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0427EA5-2BD5-45DA-AF76-D16B975CB4C9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1074466" y="28450130"/>
+            <a:ext cx="168430" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="132" name="Straight Connector 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4DDA3D2-7561-43E1-8360-C43342B7D740}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1074467" y="28403666"/>
+            <a:ext cx="168430" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="133" name="Straight Connector 132">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5405C23F-576B-4A57-9279-A3BA9EFA6690}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1074467" y="28357204"/>
+            <a:ext cx="168430" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40969</xdr:colOff>
+      <xdr:row>494</xdr:row>
+      <xdr:rowOff>30726</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="548967" cy="465340"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="Picture 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB86FEF-296A-42EF-996C-7EB1ACCB9EFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3061091" y="92643927"/>
+          <a:ext cx="548967" cy="465340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30727</xdr:colOff>
+      <xdr:row>497</xdr:row>
+      <xdr:rowOff>30725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="548967" cy="465341"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="135" name="Picture 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353AC6BA-0FFA-498E-BC5B-60CE9064606A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3050849" y="93213103"/>
+          <a:ext cx="548967" cy="465341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>81311</xdr:colOff>
+      <xdr:row>492</xdr:row>
+      <xdr:rowOff>66428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10353</xdr:colOff>
+      <xdr:row>493</xdr:row>
+      <xdr:rowOff>185586</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F82D22-257C-4920-BDAC-3E124A920152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5366524" y="92307922"/>
+          <a:ext cx="533067" cy="305012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Chọn</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274362</xdr:colOff>
+      <xdr:row>495</xdr:row>
+      <xdr:rowOff>41414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414131</xdr:colOff>
+      <xdr:row>495</xdr:row>
+      <xdr:rowOff>176006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E6F291-B540-44F1-BEA5-0B68F0A07D92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5616645" y="95498479"/>
+          <a:ext cx="139769" cy="134592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>279540</xdr:colOff>
+      <xdr:row>498</xdr:row>
+      <xdr:rowOff>36236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419309</xdr:colOff>
+      <xdr:row>498</xdr:row>
+      <xdr:rowOff>170828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="Rectangle 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3968E2B-F4A5-44DD-9A17-5B5A1C12919F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5621823" y="96078260"/>
+          <a:ext cx="139769" cy="134592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>500689</xdr:colOff>
+      <xdr:row>528</xdr:row>
+      <xdr:rowOff>23740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>563</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="137" name="Group 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520B8C64-4061-446F-9B6D-728787D0E101}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2939089" y="101369740"/>
+          <a:ext cx="3123573" cy="6669161"/>
+          <a:chOff x="2933700" y="6296025"/>
+          <a:chExt cx="3051519" cy="6640029"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="138" name="Rectangle: Rounded Corners 137">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D207AED-A5B1-4175-A510-BB55F5B19F5F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2933700" y="6296025"/>
+            <a:ext cx="3051519" cy="6640029"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="145" name="Rectangle 144">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1B2D78-1581-4153-AA0B-69007F9CB386}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="1879734" y="8189062"/>
+            <a:ext cx="5159450" cy="2844352"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="146" name="Oval 145">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3E4FF6C-1D02-458A-BAC3-AE609D8FF180}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4231254" y="12315025"/>
+            <a:ext cx="467140" cy="457676"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="147" name="Rectangle: Rounded Corners 146">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FC2849-BECB-4393-8C7C-D70599114D5E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4240780" y="6650034"/>
+            <a:ext cx="467139" cy="41578"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>153820</xdr:colOff>
+      <xdr:row>532</xdr:row>
+      <xdr:rowOff>138137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>141988</xdr:colOff>
+      <xdr:row>535</xdr:row>
+      <xdr:rowOff>117430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44D8100-ACF4-4A26-9728-9C33B66CCC7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200224" y="102710148"/>
+          <a:ext cx="597448" cy="553986"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>255419</xdr:colOff>
+      <xdr:row>533</xdr:row>
+      <xdr:rowOff>60565</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="395607" cy="335342"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="172" name="Picture 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C2D5B7-2BAC-4CD5-AF3B-CE4C3A93C809}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3301823" y="102824140"/>
+          <a:ext cx="395607" cy="335342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>500689</xdr:colOff>
+      <xdr:row>568</xdr:row>
+      <xdr:rowOff>23740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>603</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="173" name="Group 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF44576-D3EC-42FF-9970-A244D4349941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2939089" y="109015140"/>
+          <a:ext cx="3123573" cy="6669161"/>
+          <a:chOff x="2933700" y="6296025"/>
+          <a:chExt cx="3051519" cy="6640029"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="174" name="Rectangle: Rounded Corners 173">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD912434-7198-4BF5-BF3E-67281601EC84}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2933700" y="6296025"/>
+            <a:ext cx="3051519" cy="6640029"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="175" name="Rectangle 174">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8A3066-D5FC-45CB-8EC2-4558BEDE3A62}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="1879734" y="8189062"/>
+            <a:ext cx="5159450" cy="2844352"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="176" name="Oval 175">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB731EC9-88AB-4059-BD90-9958D170AEFB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4231254" y="12315025"/>
+            <a:ext cx="467140" cy="457676"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="177" name="Rectangle: Rounded Corners 176">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5DF308-C7F4-4D11-B1C9-9745C44C4A4A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4240780" y="6650034"/>
+            <a:ext cx="467139" cy="41578"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>168430</xdr:colOff>
+      <xdr:row>572</xdr:row>
+      <xdr:rowOff>145200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>336861</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>46465</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="178" name="Group 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3E5ACA-02B8-4FBD-953F-21CE7231EA5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3216430" y="109898600"/>
+          <a:ext cx="168431" cy="91765"/>
+          <a:chOff x="1074466" y="28357204"/>
+          <a:chExt cx="168431" cy="92926"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="179" name="Straight Connector 178">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FBB0B99-8774-4277-8FBF-F104D71F40F0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1074466" y="28450130"/>
+            <a:ext cx="168430" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="180" name="Straight Connector 179">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4A7755-B0D5-43C1-9640-19D673466C64}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1074467" y="28403666"/>
+            <a:ext cx="168430" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="181" name="Straight Connector 180">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E239D3D-5D64-4EAE-B894-086D81B628BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1074467" y="28357204"/>
+            <a:ext cx="168430" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40969</xdr:colOff>
+      <xdr:row>574</xdr:row>
+      <xdr:rowOff>30726</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="548967" cy="465340"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="182" name="Picture 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC4E59CA-A28B-4D3A-B677-1625A4041369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3088969" y="94874326"/>
+          <a:ext cx="548967" cy="465340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30727</xdr:colOff>
+      <xdr:row>577</xdr:row>
+      <xdr:rowOff>30725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="548967" cy="465341"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="183" name="Picture 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{704C1F1F-09C6-4D2F-B082-8E5AF5DF165C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3078727" y="95458525"/>
+          <a:ext cx="548967" cy="465341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6122,10 +8902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09DC12B-5BAB-43D6-8B72-51D346DD0231}">
-  <dimension ref="A1:P486"/>
+  <dimension ref="A1:P620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="M422" sqref="M422"/>
+    <sheetView tabSelected="1" topLeftCell="A417" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="V470" sqref="V470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6444,204 +9224,204 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>23</v>
+      <c r="A18" s="34" t="s">
+        <v>19</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -6701,8 +9481,8 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="44" t="s">
-        <v>24</v>
+      <c r="D32" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -6975,13 +9755,13 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="6" t="s">
-        <v>0</v>
+      <c r="F47" s="52" t="s">
+        <v>31</v>
       </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -6995,11 +9775,11 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -7013,11 +9793,11 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -7031,11 +9811,11 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -7049,11 +9829,11 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -7067,11 +9847,11 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -7622,10 +10402,10 @@
     <row r="83" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="44" t="s">
-        <v>18</v>
+      <c r="C83" s="24" t="s">
+        <v>14</v>
       </c>
+      <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -7735,13 +10515,13 @@
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="8" t="s">
-        <v>1</v>
+      <c r="F89" s="32" t="s">
+        <v>0</v>
       </c>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="32"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -7755,11 +10535,11 @@
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="43"/>
-      <c r="J90" s="43"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -7773,13 +10553,13 @@
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="10" t="s">
-        <v>3</v>
+      <c r="F91" s="14"/>
+      <c r="G91" s="26" t="s">
+        <v>32</v>
       </c>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="11"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="9"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -7793,13 +10573,13 @@
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="12" t="s">
-        <v>2</v>
+      <c r="F92" s="15"/>
+      <c r="G92" s="27" t="s">
+        <v>33</v>
       </c>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="13"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="11"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
@@ -7807,19 +10587,21 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="14" t="s">
-        <v>25</v>
+      <c r="F93" s="16"/>
+      <c r="G93" s="12" t="s">
+        <v>28</v>
       </c>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="15"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J93" s="13"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
@@ -7833,13 +10615,13 @@
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="10" t="s">
-        <v>4</v>
+      <c r="F94" s="14"/>
+      <c r="G94" s="26" t="s">
+        <v>34</v>
       </c>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="11"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="9"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
@@ -7853,13 +10635,13 @@
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="12" t="s">
-        <v>2</v>
+      <c r="F95" s="15"/>
+      <c r="G95" s="27" t="s">
+        <v>33</v>
       </c>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="13"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="11"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
@@ -7867,19 +10649,21 @@
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="14" t="s">
-        <v>26</v>
+      <c r="F96" s="16"/>
+      <c r="G96" s="12" t="s">
+        <v>28</v>
       </c>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="15"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J96" s="13"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
@@ -8431,8 +11215,8 @@
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
-      <c r="D127" s="44" t="s">
-        <v>19</v>
+      <c r="D127" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -8543,13 +11327,13 @@
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
-      <c r="F133" s="8" t="s">
-        <v>5</v>
+      <c r="F133" s="32" t="s">
+        <v>1</v>
       </c>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="19"/>
+      <c r="G133" s="41"/>
+      <c r="H133" s="41"/>
+      <c r="I133" s="41"/>
+      <c r="J133" s="41"/>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
@@ -8563,11 +11347,11 @@
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="19"/>
+      <c r="F134" s="41"/>
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
@@ -8578,7 +11362,7 @@
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
-      <c r="C135" s="9"/>
+      <c r="C135" s="7"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="3"/>
@@ -8596,7 +11380,7 @@
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
-      <c r="C136" s="9"/>
+      <c r="C136" s="7"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="3"/>
@@ -8811,7 +11595,7 @@
     </row>
     <row r="148" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
-      <c r="B148" s="9"/>
+      <c r="B148" s="7"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -8829,7 +11613,7 @@
     </row>
     <row r="149" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
-      <c r="B149" s="9"/>
+      <c r="B149" s="7"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -9371,8 +12155,8 @@
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
-      <c r="D179" s="44" t="s">
-        <v>27</v>
+      <c r="D179" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -9483,13 +12267,13 @@
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
-      <c r="F185" s="8" t="s">
-        <v>6</v>
+      <c r="F185" s="32" t="s">
+        <v>2</v>
       </c>
-      <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
-      <c r="I185" s="8"/>
-      <c r="J185" s="8"/>
+      <c r="G185" s="32"/>
+      <c r="H185" s="32"/>
+      <c r="I185" s="32"/>
+      <c r="J185" s="32"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
@@ -9503,11 +12287,11 @@
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
-      <c r="F186" s="8"/>
-      <c r="G186" s="8"/>
-      <c r="H186" s="8"/>
-      <c r="I186" s="8"/>
-      <c r="J186" s="8"/>
+      <c r="F186" s="32"/>
+      <c r="G186" s="32"/>
+      <c r="H186" s="32"/>
+      <c r="I186" s="32"/>
+      <c r="J186" s="32"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
@@ -10167,8 +12951,8 @@
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
-      <c r="D223" s="44" t="s">
-        <v>20</v>
+      <c r="D223" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
@@ -10279,13 +13063,13 @@
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
-      <c r="F229" s="8" t="s">
-        <v>6</v>
+      <c r="F229" s="32" t="s">
+        <v>2</v>
       </c>
-      <c r="G229" s="8"/>
-      <c r="H229" s="8"/>
-      <c r="I229" s="8"/>
-      <c r="J229" s="8"/>
+      <c r="G229" s="32"/>
+      <c r="H229" s="32"/>
+      <c r="I229" s="32"/>
+      <c r="J229" s="32"/>
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
@@ -10299,11 +13083,11 @@
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
-      <c r="F230" s="8"/>
-      <c r="G230" s="8"/>
-      <c r="H230" s="8"/>
-      <c r="I230" s="8"/>
-      <c r="J230" s="8"/>
+      <c r="F230" s="32"/>
+      <c r="G230" s="32"/>
+      <c r="H230" s="32"/>
+      <c r="I230" s="32"/>
+      <c r="J230" s="32"/>
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
@@ -10317,11 +13101,11 @@
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
-      <c r="F231" s="20"/>
-      <c r="G231" s="20"/>
-      <c r="H231" s="20"/>
-      <c r="I231" s="20"/>
-      <c r="J231" s="20"/>
+      <c r="F231" s="17"/>
+      <c r="G231" s="17"/>
+      <c r="H231" s="17"/>
+      <c r="I231" s="17"/>
+      <c r="J231" s="17"/>
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
@@ -10335,11 +13119,11 @@
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
-      <c r="F232" s="20"/>
-      <c r="G232" s="20"/>
-      <c r="H232" s="20"/>
-      <c r="I232" s="20"/>
-      <c r="J232" s="20"/>
+      <c r="F232" s="17"/>
+      <c r="G232" s="17"/>
+      <c r="H232" s="17"/>
+      <c r="I232" s="17"/>
+      <c r="J232" s="17"/>
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
@@ -10353,11 +13137,11 @@
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
-      <c r="F233" s="20"/>
-      <c r="G233" s="20"/>
-      <c r="H233" s="20"/>
-      <c r="I233" s="20"/>
-      <c r="J233" s="20"/>
+      <c r="F233" s="17"/>
+      <c r="G233" s="17"/>
+      <c r="H233" s="17"/>
+      <c r="I233" s="17"/>
+      <c r="J233" s="17"/>
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
@@ -10371,11 +13155,11 @@
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
-      <c r="F234" s="20"/>
-      <c r="G234" s="20"/>
-      <c r="H234" s="20"/>
-      <c r="I234" s="20"/>
-      <c r="J234" s="20"/>
+      <c r="F234" s="17"/>
+      <c r="G234" s="17"/>
+      <c r="H234" s="17"/>
+      <c r="I234" s="17"/>
+      <c r="J234" s="17"/>
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
       <c r="M234" s="2"/>
@@ -10389,11 +13173,11 @@
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
-      <c r="F235" s="20"/>
-      <c r="G235" s="20"/>
-      <c r="H235" s="20"/>
-      <c r="I235" s="20"/>
-      <c r="J235" s="20"/>
+      <c r="F235" s="17"/>
+      <c r="G235" s="17"/>
+      <c r="H235" s="17"/>
+      <c r="I235" s="17"/>
+      <c r="J235" s="17"/>
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
       <c r="M235" s="2"/>
@@ -10407,11 +13191,11 @@
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
-      <c r="F236" s="20"/>
-      <c r="G236" s="20"/>
-      <c r="H236" s="20"/>
-      <c r="I236" s="20"/>
-      <c r="J236" s="20"/>
+      <c r="F236" s="17"/>
+      <c r="G236" s="17"/>
+      <c r="H236" s="17"/>
+      <c r="I236" s="17"/>
+      <c r="J236" s="17"/>
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
       <c r="M236" s="2"/>
@@ -10425,11 +13209,11 @@
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
-      <c r="F237" s="20"/>
-      <c r="G237" s="20"/>
-      <c r="H237" s="20"/>
-      <c r="I237" s="20"/>
-      <c r="J237" s="20"/>
+      <c r="F237" s="17"/>
+      <c r="G237" s="17"/>
+      <c r="H237" s="17"/>
+      <c r="I237" s="17"/>
+      <c r="J237" s="17"/>
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
       <c r="M237" s="2"/>
@@ -10443,11 +13227,11 @@
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
-      <c r="F238" s="20"/>
-      <c r="G238" s="20"/>
-      <c r="H238" s="20"/>
-      <c r="I238" s="20"/>
-      <c r="J238" s="20"/>
+      <c r="F238" s="17"/>
+      <c r="G238" s="17"/>
+      <c r="H238" s="17"/>
+      <c r="I238" s="17"/>
+      <c r="J238" s="17"/>
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
       <c r="M238" s="2"/>
@@ -10461,11 +13245,11 @@
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
-      <c r="F239" s="20"/>
-      <c r="G239" s="20"/>
-      <c r="H239" s="20"/>
-      <c r="I239" s="20"/>
-      <c r="J239" s="20"/>
+      <c r="F239" s="17"/>
+      <c r="G239" s="17"/>
+      <c r="H239" s="17"/>
+      <c r="I239" s="17"/>
+      <c r="J239" s="17"/>
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
       <c r="M239" s="2"/>
@@ -10479,11 +13263,11 @@
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
-      <c r="F240" s="20"/>
-      <c r="G240" s="20"/>
-      <c r="H240" s="20"/>
-      <c r="I240" s="20"/>
-      <c r="J240" s="20"/>
+      <c r="F240" s="17"/>
+      <c r="G240" s="17"/>
+      <c r="H240" s="17"/>
+      <c r="I240" s="17"/>
+      <c r="J240" s="17"/>
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
       <c r="M240" s="2"/>
@@ -10497,11 +13281,11 @@
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
-      <c r="F241" s="20"/>
-      <c r="G241" s="20"/>
-      <c r="H241" s="20"/>
-      <c r="I241" s="20"/>
-      <c r="J241" s="20"/>
+      <c r="F241" s="17"/>
+      <c r="G241" s="17"/>
+      <c r="H241" s="17"/>
+      <c r="I241" s="17"/>
+      <c r="J241" s="17"/>
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
       <c r="M241" s="2"/>
@@ -10515,11 +13299,11 @@
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
-      <c r="F242" s="20"/>
-      <c r="G242" s="20"/>
-      <c r="H242" s="20"/>
-      <c r="I242" s="20"/>
-      <c r="J242" s="20"/>
+      <c r="F242" s="17"/>
+      <c r="G242" s="17"/>
+      <c r="H242" s="17"/>
+      <c r="I242" s="17"/>
+      <c r="J242" s="17"/>
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
       <c r="M242" s="2"/>
@@ -10533,11 +13317,11 @@
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
-      <c r="F243" s="20"/>
-      <c r="G243" s="20"/>
-      <c r="H243" s="20"/>
-      <c r="I243" s="20"/>
-      <c r="J243" s="20"/>
+      <c r="F243" s="17"/>
+      <c r="G243" s="17"/>
+      <c r="H243" s="17"/>
+      <c r="I243" s="17"/>
+      <c r="J243" s="17"/>
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
       <c r="M243" s="2"/>
@@ -10551,11 +13335,11 @@
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
-      <c r="F244" s="20"/>
-      <c r="G244" s="20"/>
-      <c r="H244" s="20"/>
-      <c r="I244" s="20"/>
-      <c r="J244" s="20"/>
+      <c r="F244" s="17"/>
+      <c r="G244" s="17"/>
+      <c r="H244" s="17"/>
+      <c r="I244" s="17"/>
+      <c r="J244" s="17"/>
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
       <c r="M244" s="2"/>
@@ -10569,11 +13353,11 @@
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
-      <c r="F245" s="20"/>
-      <c r="G245" s="20"/>
-      <c r="H245" s="20"/>
-      <c r="I245" s="20"/>
-      <c r="J245" s="20"/>
+      <c r="F245" s="17"/>
+      <c r="G245" s="17"/>
+      <c r="H245" s="17"/>
+      <c r="I245" s="17"/>
+      <c r="J245" s="17"/>
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
       <c r="M245" s="2"/>
@@ -10587,11 +13371,11 @@
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
-      <c r="F246" s="20"/>
-      <c r="G246" s="20"/>
-      <c r="H246" s="20"/>
-      <c r="I246" s="20"/>
-      <c r="J246" s="20"/>
+      <c r="F246" s="17"/>
+      <c r="G246" s="17"/>
+      <c r="H246" s="17"/>
+      <c r="I246" s="17"/>
+      <c r="J246" s="17"/>
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
       <c r="M246" s="2"/>
@@ -10605,11 +13389,11 @@
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
-      <c r="F247" s="20"/>
-      <c r="G247" s="20"/>
-      <c r="H247" s="20"/>
-      <c r="I247" s="20"/>
-      <c r="J247" s="20"/>
+      <c r="F247" s="17"/>
+      <c r="G247" s="17"/>
+      <c r="H247" s="17"/>
+      <c r="I247" s="17"/>
+      <c r="J247" s="17"/>
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
       <c r="M247" s="2"/>
@@ -10623,11 +13407,11 @@
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
-      <c r="F248" s="20"/>
-      <c r="G248" s="20"/>
-      <c r="H248" s="20"/>
-      <c r="I248" s="20"/>
-      <c r="J248" s="20"/>
+      <c r="F248" s="17"/>
+      <c r="G248" s="17"/>
+      <c r="H248" s="17"/>
+      <c r="I248" s="17"/>
+      <c r="J248" s="17"/>
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
       <c r="M248" s="2"/>
@@ -10641,11 +13425,11 @@
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
-      <c r="F249" s="20"/>
-      <c r="G249" s="20"/>
-      <c r="H249" s="20"/>
-      <c r="I249" s="20"/>
-      <c r="J249" s="20"/>
+      <c r="F249" s="17"/>
+      <c r="G249" s="17"/>
+      <c r="H249" s="17"/>
+      <c r="I249" s="17"/>
+      <c r="J249" s="17"/>
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
       <c r="M249" s="2"/>
@@ -10659,11 +13443,11 @@
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
-      <c r="F250" s="20"/>
-      <c r="G250" s="20"/>
-      <c r="H250" s="20"/>
-      <c r="I250" s="20"/>
-      <c r="J250" s="20"/>
+      <c r="F250" s="17"/>
+      <c r="G250" s="17"/>
+      <c r="H250" s="17"/>
+      <c r="I250" s="17"/>
+      <c r="J250" s="17"/>
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
       <c r="M250" s="2"/>
@@ -10677,11 +13461,11 @@
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
-      <c r="F251" s="20"/>
-      <c r="G251" s="20"/>
-      <c r="H251" s="20"/>
-      <c r="I251" s="20"/>
-      <c r="J251" s="20"/>
+      <c r="F251" s="17"/>
+      <c r="G251" s="17"/>
+      <c r="H251" s="17"/>
+      <c r="I251" s="17"/>
+      <c r="J251" s="17"/>
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
       <c r="M251" s="2"/>
@@ -10695,11 +13479,11 @@
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
-      <c r="F252" s="20"/>
-      <c r="G252" s="20"/>
-      <c r="H252" s="20"/>
-      <c r="I252" s="20"/>
-      <c r="J252" s="20"/>
+      <c r="F252" s="17"/>
+      <c r="G252" s="17"/>
+      <c r="H252" s="17"/>
+      <c r="I252" s="17"/>
+      <c r="J252" s="17"/>
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
       <c r="M252" s="2"/>
@@ -10713,11 +13497,11 @@
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
-      <c r="F253" s="20"/>
-      <c r="G253" s="20"/>
-      <c r="H253" s="20"/>
-      <c r="I253" s="20"/>
-      <c r="J253" s="20"/>
+      <c r="F253" s="17"/>
+      <c r="G253" s="17"/>
+      <c r="H253" s="17"/>
+      <c r="I253" s="17"/>
+      <c r="J253" s="17"/>
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
       <c r="M253" s="2"/>
@@ -10731,11 +13515,11 @@
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
-      <c r="F254" s="7"/>
-      <c r="G254" s="7"/>
-      <c r="H254" s="7"/>
-      <c r="I254" s="7"/>
-      <c r="J254" s="7"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+      <c r="I254" s="6"/>
+      <c r="J254" s="6"/>
       <c r="K254" s="2"/>
       <c r="L254" s="2"/>
       <c r="M254" s="2"/>
@@ -10749,11 +13533,11 @@
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
-      <c r="F255" s="7"/>
-      <c r="G255" s="7"/>
-      <c r="H255" s="7"/>
-      <c r="I255" s="7"/>
-      <c r="J255" s="7"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+      <c r="I255" s="6"/>
+      <c r="J255" s="6"/>
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
       <c r="M255" s="2"/>
@@ -10999,8 +13783,8 @@
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
-      <c r="D269" s="44" t="s">
-        <v>28</v>
+      <c r="D269" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
@@ -11111,13 +13895,13 @@
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
-      <c r="F275" s="8" t="s">
-        <v>7</v>
+      <c r="F275" s="32" t="s">
+        <v>3</v>
       </c>
-      <c r="G275" s="8"/>
-      <c r="H275" s="8"/>
-      <c r="I275" s="8"/>
-      <c r="J275" s="8"/>
+      <c r="G275" s="32"/>
+      <c r="H275" s="32"/>
+      <c r="I275" s="32"/>
+      <c r="J275" s="32"/>
       <c r="K275" s="2"/>
       <c r="L275" s="2"/>
       <c r="M275" s="2"/>
@@ -11131,11 +13915,11 @@
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
-      <c r="F276" s="8"/>
-      <c r="G276" s="8"/>
-      <c r="H276" s="8"/>
-      <c r="I276" s="8"/>
-      <c r="J276" s="8"/>
+      <c r="F276" s="32"/>
+      <c r="G276" s="32"/>
+      <c r="H276" s="32"/>
+      <c r="I276" s="32"/>
+      <c r="J276" s="32"/>
       <c r="K276" s="2"/>
       <c r="L276" s="2"/>
       <c r="M276" s="2"/>
@@ -11149,13 +13933,13 @@
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
-      <c r="F277" s="21" t="s">
-        <v>11</v>
+      <c r="F277" s="35" t="s">
+        <v>7</v>
       </c>
-      <c r="G277" s="22"/>
-      <c r="H277" s="22"/>
-      <c r="I277" s="22"/>
-      <c r="J277" s="23"/>
+      <c r="G277" s="36"/>
+      <c r="H277" s="36"/>
+      <c r="I277" s="36"/>
+      <c r="J277" s="37"/>
       <c r="K277" s="2"/>
       <c r="L277" s="2"/>
       <c r="M277" s="2"/>
@@ -11169,11 +13953,11 @@
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
-      <c r="F278" s="24"/>
-      <c r="G278" s="25"/>
-      <c r="H278" s="25"/>
-      <c r="I278" s="25"/>
-      <c r="J278" s="26"/>
+      <c r="F278" s="38"/>
+      <c r="G278" s="39"/>
+      <c r="H278" s="39"/>
+      <c r="I278" s="39"/>
+      <c r="J278" s="40"/>
       <c r="K278" s="2"/>
       <c r="L278" s="2"/>
       <c r="M278" s="2"/>
@@ -11187,13 +13971,13 @@
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
-      <c r="F279" s="21" t="s">
-        <v>12</v>
+      <c r="F279" s="35" t="s">
+        <v>8</v>
       </c>
-      <c r="G279" s="27"/>
-      <c r="H279" s="27"/>
-      <c r="I279" s="27"/>
-      <c r="J279" s="28"/>
+      <c r="G279" s="42"/>
+      <c r="H279" s="42"/>
+      <c r="I279" s="42"/>
+      <c r="J279" s="43"/>
       <c r="K279" s="2"/>
       <c r="L279" s="2"/>
       <c r="M279" s="2"/>
@@ -11207,11 +13991,11 @@
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
-      <c r="F280" s="29"/>
-      <c r="G280" s="30"/>
-      <c r="H280" s="30"/>
-      <c r="I280" s="30"/>
-      <c r="J280" s="31"/>
+      <c r="F280" s="44"/>
+      <c r="G280" s="45"/>
+      <c r="H280" s="45"/>
+      <c r="I280" s="45"/>
+      <c r="J280" s="46"/>
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
@@ -11225,13 +14009,13 @@
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
-      <c r="F281" s="32" t="s">
-        <v>8</v>
+      <c r="F281" s="28" t="s">
+        <v>4</v>
       </c>
-      <c r="G281" s="32"/>
-      <c r="H281" s="32"/>
-      <c r="I281" s="32"/>
-      <c r="J281" s="32"/>
+      <c r="G281" s="18"/>
+      <c r="H281" s="18"/>
+      <c r="I281" s="18"/>
+      <c r="J281" s="18"/>
       <c r="K281" s="2"/>
       <c r="L281" s="2"/>
       <c r="M281" s="2"/>
@@ -11245,13 +14029,13 @@
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
-      <c r="F282" s="33" t="s">
-        <v>9</v>
+      <c r="F282" s="29" t="s">
+        <v>5</v>
       </c>
-      <c r="G282" s="33"/>
-      <c r="H282" s="33"/>
-      <c r="I282" s="33"/>
-      <c r="J282" s="33"/>
+      <c r="G282" s="19"/>
+      <c r="H282" s="19"/>
+      <c r="I282" s="19"/>
+      <c r="J282" s="19"/>
       <c r="K282" s="2"/>
       <c r="L282" s="2"/>
       <c r="M282" s="2"/>
@@ -11265,13 +14049,13 @@
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
-      <c r="F283" s="33" t="s">
-        <v>10</v>
+      <c r="F283" s="29" t="s">
+        <v>6</v>
       </c>
-      <c r="G283" s="33"/>
-      <c r="H283" s="33"/>
-      <c r="I283" s="33"/>
-      <c r="J283" s="33"/>
+      <c r="G283" s="19"/>
+      <c r="H283" s="19"/>
+      <c r="I283" s="19"/>
+      <c r="J283" s="19"/>
       <c r="K283" s="2"/>
       <c r="L283" s="2"/>
       <c r="M283" s="2"/>
@@ -11285,13 +14069,13 @@
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
-      <c r="F284" s="21" t="s">
-        <v>29</v>
+      <c r="F284" s="35" t="s">
+        <v>23</v>
       </c>
-      <c r="G284" s="34"/>
-      <c r="H284" s="34"/>
-      <c r="I284" s="34"/>
-      <c r="J284" s="35"/>
+      <c r="G284" s="47"/>
+      <c r="H284" s="47"/>
+      <c r="I284" s="47"/>
+      <c r="J284" s="48"/>
       <c r="K284" s="2"/>
       <c r="L284" s="2"/>
       <c r="M284" s="2"/>
@@ -11305,11 +14089,11 @@
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
-      <c r="F285" s="36"/>
-      <c r="G285" s="37"/>
-      <c r="H285" s="37"/>
-      <c r="I285" s="37"/>
-      <c r="J285" s="38"/>
+      <c r="F285" s="49"/>
+      <c r="G285" s="50"/>
+      <c r="H285" s="50"/>
+      <c r="I285" s="50"/>
+      <c r="J285" s="51"/>
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
       <c r="M285" s="2"/>
@@ -11825,8 +14609,8 @@
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
-      <c r="D314" s="44" t="s">
-        <v>21</v>
+      <c r="D314" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
@@ -11955,13 +14739,13 @@
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
-      <c r="F321" s="8" t="s">
-        <v>5</v>
+      <c r="F321" s="32" t="s">
+        <v>1</v>
       </c>
-      <c r="G321" s="19"/>
-      <c r="H321" s="19"/>
-      <c r="I321" s="19"/>
-      <c r="J321" s="19"/>
+      <c r="G321" s="41"/>
+      <c r="H321" s="41"/>
+      <c r="I321" s="41"/>
+      <c r="J321" s="41"/>
       <c r="K321" s="2"/>
       <c r="L321" s="2"/>
       <c r="M321" s="2"/>
@@ -11975,11 +14759,11 @@
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
-      <c r="F322" s="19"/>
-      <c r="G322" s="19"/>
-      <c r="H322" s="19"/>
-      <c r="I322" s="19"/>
-      <c r="J322" s="19"/>
+      <c r="F322" s="41"/>
+      <c r="G322" s="41"/>
+      <c r="H322" s="41"/>
+      <c r="I322" s="41"/>
+      <c r="J322" s="41"/>
       <c r="K322" s="2"/>
       <c r="L322" s="2"/>
       <c r="M322" s="2"/>
@@ -12711,8 +15495,8 @@
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
-      <c r="D363" s="44" t="s">
-        <v>22</v>
+      <c r="D363" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
@@ -12823,13 +15607,13 @@
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
-      <c r="F369" s="8" t="s">
-        <v>13</v>
+      <c r="F369" s="32" t="s">
+        <v>9</v>
       </c>
-      <c r="G369" s="8"/>
-      <c r="H369" s="8"/>
-      <c r="I369" s="8"/>
-      <c r="J369" s="8"/>
+      <c r="G369" s="32"/>
+      <c r="H369" s="32"/>
+      <c r="I369" s="32"/>
+      <c r="J369" s="32"/>
       <c r="K369" s="2"/>
       <c r="L369" s="2"/>
       <c r="M369" s="2"/>
@@ -12843,11 +15627,11 @@
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
-      <c r="F370" s="8"/>
-      <c r="G370" s="8"/>
-      <c r="H370" s="8"/>
-      <c r="I370" s="8"/>
-      <c r="J370" s="8"/>
+      <c r="F370" s="32"/>
+      <c r="G370" s="32"/>
+      <c r="H370" s="32"/>
+      <c r="I370" s="32"/>
+      <c r="J370" s="32"/>
       <c r="K370" s="2"/>
       <c r="L370" s="2"/>
       <c r="M370" s="2"/>
@@ -12861,13 +15645,13 @@
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
-      <c r="F371" s="21" t="s">
-        <v>15</v>
+      <c r="F371" s="35" t="s">
+        <v>25</v>
       </c>
-      <c r="G371" s="22"/>
-      <c r="H371" s="22"/>
-      <c r="I371" s="22"/>
-      <c r="J371" s="23"/>
+      <c r="G371" s="36"/>
+      <c r="H371" s="36"/>
+      <c r="I371" s="36"/>
+      <c r="J371" s="37"/>
       <c r="K371" s="2"/>
       <c r="L371" s="2"/>
       <c r="M371" s="2"/>
@@ -12881,11 +15665,11 @@
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
-      <c r="F372" s="24"/>
-      <c r="G372" s="25"/>
-      <c r="H372" s="25"/>
-      <c r="I372" s="25"/>
-      <c r="J372" s="26"/>
+      <c r="F372" s="38"/>
+      <c r="G372" s="39"/>
+      <c r="H372" s="39"/>
+      <c r="I372" s="39"/>
+      <c r="J372" s="40"/>
       <c r="K372" s="2"/>
       <c r="L372" s="2"/>
       <c r="M372" s="2"/>
@@ -12899,13 +15683,13 @@
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
-      <c r="F373" s="40" t="s">
-        <v>14</v>
+      <c r="F373" s="21" t="s">
+        <v>10</v>
       </c>
-      <c r="G373" s="41"/>
-      <c r="H373" s="41"/>
-      <c r="I373" s="41"/>
-      <c r="J373" s="41"/>
+      <c r="G373" s="22"/>
+      <c r="H373" s="22"/>
+      <c r="I373" s="22"/>
+      <c r="J373" s="22"/>
       <c r="K373" s="2"/>
       <c r="L373" s="2"/>
       <c r="M373" s="2"/>
@@ -12919,13 +15703,13 @@
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
-      <c r="F374" s="41" t="s">
-        <v>16</v>
+      <c r="F374" s="30" t="s">
+        <v>12</v>
       </c>
-      <c r="G374" s="41"/>
-      <c r="H374" s="41"/>
-      <c r="I374" s="41"/>
-      <c r="J374" s="41"/>
+      <c r="G374" s="22"/>
+      <c r="H374" s="22"/>
+      <c r="I374" s="22"/>
+      <c r="J374" s="22"/>
       <c r="K374" s="2"/>
       <c r="L374" s="2"/>
       <c r="M374" s="2"/>
@@ -12939,11 +15723,11 @@
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
-      <c r="F375" s="39"/>
-      <c r="G375" s="39"/>
-      <c r="H375" s="39"/>
-      <c r="I375" s="39"/>
-      <c r="J375" s="39"/>
+      <c r="F375" s="20"/>
+      <c r="G375" s="20"/>
+      <c r="H375" s="20"/>
+      <c r="I375" s="20"/>
+      <c r="J375" s="20"/>
       <c r="K375" s="2"/>
       <c r="L375" s="2"/>
       <c r="M375" s="2"/>
@@ -12957,13 +15741,13 @@
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
-      <c r="F376" s="21" t="s">
-        <v>17</v>
+      <c r="F376" s="35" t="s">
+        <v>26</v>
       </c>
-      <c r="G376" s="22"/>
-      <c r="H376" s="22"/>
-      <c r="I376" s="22"/>
-      <c r="J376" s="23"/>
+      <c r="G376" s="36"/>
+      <c r="H376" s="36"/>
+      <c r="I376" s="36"/>
+      <c r="J376" s="37"/>
       <c r="K376" s="2"/>
       <c r="L376" s="2"/>
       <c r="M376" s="2"/>
@@ -12977,11 +15761,11 @@
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
-      <c r="F377" s="24"/>
-      <c r="G377" s="25"/>
-      <c r="H377" s="25"/>
-      <c r="I377" s="25"/>
-      <c r="J377" s="26"/>
+      <c r="F377" s="38"/>
+      <c r="G377" s="39"/>
+      <c r="H377" s="39"/>
+      <c r="I377" s="39"/>
+      <c r="J377" s="40"/>
       <c r="K377" s="2"/>
       <c r="L377" s="2"/>
       <c r="M377" s="2"/>
@@ -12995,11 +15779,11 @@
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
-      <c r="F378" s="40"/>
-      <c r="G378" s="40"/>
-      <c r="H378" s="40"/>
-      <c r="I378" s="40"/>
-      <c r="J378" s="40"/>
+      <c r="F378" s="21"/>
+      <c r="G378" s="21"/>
+      <c r="H378" s="21"/>
+      <c r="I378" s="21"/>
+      <c r="J378" s="21"/>
       <c r="K378" s="2"/>
       <c r="L378" s="2"/>
       <c r="M378" s="2"/>
@@ -13013,11 +15797,11 @@
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
-      <c r="F379" s="40"/>
-      <c r="G379" s="40"/>
-      <c r="H379" s="40"/>
-      <c r="I379" s="40"/>
-      <c r="J379" s="40"/>
+      <c r="F379" s="21"/>
+      <c r="G379" s="21"/>
+      <c r="H379" s="21"/>
+      <c r="I379" s="21"/>
+      <c r="J379" s="21"/>
       <c r="K379" s="2"/>
       <c r="L379" s="2"/>
       <c r="M379" s="2"/>
@@ -13283,11 +16067,13 @@
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
-      <c r="F394" s="2"/>
-      <c r="G394" s="2"/>
-      <c r="H394" s="2"/>
-      <c r="I394" s="2"/>
-      <c r="J394" s="2"/>
+      <c r="F394" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G394" s="53"/>
+      <c r="H394" s="53"/>
+      <c r="I394" s="53"/>
+      <c r="J394" s="53"/>
       <c r="K394" s="2"/>
       <c r="L394" s="2"/>
       <c r="M394" s="2"/>
@@ -13301,11 +16087,11 @@
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
-      <c r="F395" s="2"/>
-      <c r="G395" s="2"/>
-      <c r="H395" s="2"/>
-      <c r="I395" s="2"/>
-      <c r="J395" s="2"/>
+      <c r="F395" s="53"/>
+      <c r="G395" s="53"/>
+      <c r="H395" s="53"/>
+      <c r="I395" s="53"/>
+      <c r="J395" s="53"/>
       <c r="K395" s="2"/>
       <c r="L395" s="2"/>
       <c r="M395" s="2"/>
@@ -13515,8 +16301,8 @@
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
-      <c r="D407" s="44" t="s">
-        <v>30</v>
+      <c r="D407" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
@@ -13627,13 +16413,13 @@
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
-      <c r="F413" s="8" t="s">
-        <v>13</v>
+      <c r="F413" s="32" t="s">
+        <v>9</v>
       </c>
-      <c r="G413" s="8"/>
-      <c r="H413" s="8"/>
-      <c r="I413" s="8"/>
-      <c r="J413" s="8"/>
+      <c r="G413" s="32"/>
+      <c r="H413" s="32"/>
+      <c r="I413" s="32"/>
+      <c r="J413" s="32"/>
       <c r="K413" s="2"/>
       <c r="L413" s="2"/>
       <c r="M413" s="2"/>
@@ -13647,11 +16433,11 @@
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
-      <c r="F414" s="8"/>
-      <c r="G414" s="8"/>
-      <c r="H414" s="8"/>
-      <c r="I414" s="8"/>
-      <c r="J414" s="8"/>
+      <c r="F414" s="32"/>
+      <c r="G414" s="32"/>
+      <c r="H414" s="32"/>
+      <c r="I414" s="32"/>
+      <c r="J414" s="32"/>
       <c r="K414" s="2"/>
       <c r="L414" s="2"/>
       <c r="M414" s="2"/>
@@ -13665,13 +16451,13 @@
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
-      <c r="F415" s="21" t="s">
-        <v>15</v>
+      <c r="F415" s="35" t="s">
+        <v>11</v>
       </c>
-      <c r="G415" s="22"/>
-      <c r="H415" s="22"/>
-      <c r="I415" s="22"/>
-      <c r="J415" s="23"/>
+      <c r="G415" s="36"/>
+      <c r="H415" s="36"/>
+      <c r="I415" s="36"/>
+      <c r="J415" s="37"/>
       <c r="K415" s="2"/>
       <c r="L415" s="2"/>
       <c r="M415" s="2"/>
@@ -13685,11 +16471,11 @@
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
-      <c r="F416" s="24"/>
-      <c r="G416" s="25"/>
-      <c r="H416" s="25"/>
-      <c r="I416" s="25"/>
-      <c r="J416" s="26"/>
+      <c r="F416" s="38"/>
+      <c r="G416" s="39"/>
+      <c r="H416" s="39"/>
+      <c r="I416" s="39"/>
+      <c r="J416" s="40"/>
       <c r="K416" s="2"/>
       <c r="L416" s="2"/>
       <c r="M416" s="2"/>
@@ -13703,13 +16489,13 @@
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
-      <c r="F417" s="21" t="s">
-        <v>17</v>
+      <c r="F417" s="35" t="s">
+        <v>13</v>
       </c>
-      <c r="G417" s="22"/>
-      <c r="H417" s="22"/>
-      <c r="I417" s="22"/>
-      <c r="J417" s="23"/>
+      <c r="G417" s="36"/>
+      <c r="H417" s="36"/>
+      <c r="I417" s="36"/>
+      <c r="J417" s="37"/>
       <c r="K417" s="2"/>
       <c r="L417" s="2"/>
       <c r="M417" s="2"/>
@@ -13723,11 +16509,11 @@
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
-      <c r="F418" s="24"/>
-      <c r="G418" s="25"/>
-      <c r="H418" s="25"/>
-      <c r="I418" s="25"/>
-      <c r="J418" s="26"/>
+      <c r="F418" s="38"/>
+      <c r="G418" s="39"/>
+      <c r="H418" s="39"/>
+      <c r="I418" s="39"/>
+      <c r="J418" s="40"/>
       <c r="K418" s="2"/>
       <c r="L418" s="2"/>
       <c r="M418" s="2"/>
@@ -13741,11 +16527,11 @@
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
-      <c r="F419" s="39"/>
-      <c r="G419" s="39"/>
-      <c r="H419" s="39"/>
-      <c r="I419" s="39"/>
-      <c r="J419" s="39"/>
+      <c r="F419" s="20"/>
+      <c r="G419" s="20"/>
+      <c r="H419" s="20"/>
+      <c r="I419" s="20"/>
+      <c r="J419" s="20"/>
       <c r="K419" s="2"/>
       <c r="L419" s="2"/>
       <c r="M419" s="2"/>
@@ -13759,11 +16545,11 @@
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
-      <c r="F420" s="40"/>
-      <c r="G420" s="42"/>
-      <c r="H420" s="42"/>
-      <c r="I420" s="42"/>
-      <c r="J420" s="42"/>
+      <c r="F420" s="21"/>
+      <c r="G420" s="23"/>
+      <c r="H420" s="23"/>
+      <c r="I420" s="23"/>
+      <c r="J420" s="23"/>
       <c r="K420" s="2"/>
       <c r="L420" s="2"/>
       <c r="M420" s="2"/>
@@ -13777,11 +16563,11 @@
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
-      <c r="F421" s="42"/>
-      <c r="G421" s="42"/>
-      <c r="H421" s="42"/>
-      <c r="I421" s="42"/>
-      <c r="J421" s="42"/>
+      <c r="F421" s="23"/>
+      <c r="G421" s="23"/>
+      <c r="H421" s="23"/>
+      <c r="I421" s="23"/>
+      <c r="J421" s="23"/>
       <c r="K421" s="2"/>
       <c r="L421" s="2"/>
       <c r="M421" s="2"/>
@@ -13795,11 +16581,11 @@
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
-      <c r="F422" s="40"/>
-      <c r="G422" s="40"/>
-      <c r="H422" s="40"/>
-      <c r="I422" s="40"/>
-      <c r="J422" s="40"/>
+      <c r="F422" s="21"/>
+      <c r="G422" s="21"/>
+      <c r="H422" s="21"/>
+      <c r="I422" s="21"/>
+      <c r="J422" s="21"/>
       <c r="K422" s="2"/>
       <c r="L422" s="2"/>
       <c r="M422" s="2"/>
@@ -13813,11 +16599,11 @@
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
-      <c r="F423" s="40"/>
-      <c r="G423" s="40"/>
-      <c r="H423" s="40"/>
-      <c r="I423" s="40"/>
-      <c r="J423" s="40"/>
+      <c r="F423" s="21"/>
+      <c r="G423" s="21"/>
+      <c r="H423" s="21"/>
+      <c r="I423" s="21"/>
+      <c r="J423" s="21"/>
       <c r="K423" s="2"/>
       <c r="L423" s="2"/>
       <c r="M423" s="2"/>
@@ -14335,11 +17121,11 @@
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
-      <c r="F452" s="2"/>
-      <c r="G452" s="2"/>
-      <c r="H452" s="2"/>
-      <c r="I452" s="2"/>
-      <c r="J452" s="2"/>
+      <c r="F452" s="3"/>
+      <c r="G452" s="3"/>
+      <c r="H452" s="3"/>
+      <c r="I452" s="3"/>
+      <c r="J452" s="3"/>
       <c r="K452" s="2"/>
       <c r="L452" s="2"/>
       <c r="M452" s="2"/>
@@ -14353,11 +17139,11 @@
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
-      <c r="F453" s="2"/>
-      <c r="G453" s="2"/>
-      <c r="H453" s="2"/>
-      <c r="I453" s="2"/>
-      <c r="J453" s="2"/>
+      <c r="F453" s="3"/>
+      <c r="G453" s="3"/>
+      <c r="H453" s="3"/>
+      <c r="I453" s="3"/>
+      <c r="J453" s="3"/>
       <c r="K453" s="2"/>
       <c r="L453" s="2"/>
       <c r="M453" s="2"/>
@@ -14371,11 +17157,11 @@
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
-      <c r="F454" s="2"/>
-      <c r="G454" s="2"/>
-      <c r="H454" s="2"/>
-      <c r="I454" s="2"/>
-      <c r="J454" s="2"/>
+      <c r="F454" s="3"/>
+      <c r="G454" s="3"/>
+      <c r="H454" s="3"/>
+      <c r="I454" s="3"/>
+      <c r="J454" s="3"/>
       <c r="K454" s="2"/>
       <c r="L454" s="2"/>
       <c r="M454" s="2"/>
@@ -14389,11 +17175,13 @@
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
-      <c r="F455" s="2"/>
-      <c r="G455" s="2"/>
-      <c r="H455" s="2"/>
-      <c r="I455" s="2"/>
-      <c r="J455" s="2"/>
+      <c r="F455" s="54">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="G455" s="55"/>
+      <c r="H455" s="55"/>
+      <c r="I455" s="55"/>
+      <c r="J455" s="55"/>
       <c r="K455" s="2"/>
       <c r="L455" s="2"/>
       <c r="M455" s="2"/>
@@ -14407,11 +17195,11 @@
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
-      <c r="F456" s="2"/>
-      <c r="G456" s="2"/>
-      <c r="H456" s="2"/>
-      <c r="I456" s="2"/>
-      <c r="J456" s="2"/>
+      <c r="F456" s="55"/>
+      <c r="G456" s="55"/>
+      <c r="H456" s="55"/>
+      <c r="I456" s="55"/>
+      <c r="J456" s="55"/>
       <c r="K456" s="2"/>
       <c r="L456" s="2"/>
       <c r="M456" s="2"/>
@@ -14425,11 +17213,11 @@
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
-      <c r="F457" s="2"/>
-      <c r="G457" s="2"/>
-      <c r="H457" s="2"/>
-      <c r="I457" s="2"/>
-      <c r="J457" s="2"/>
+      <c r="F457" s="55"/>
+      <c r="G457" s="55"/>
+      <c r="H457" s="55"/>
+      <c r="I457" s="55"/>
+      <c r="J457" s="55"/>
       <c r="K457" s="2"/>
       <c r="L457" s="2"/>
       <c r="M457" s="2"/>
@@ -14443,11 +17231,11 @@
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
-      <c r="F458" s="2"/>
-      <c r="G458" s="2"/>
-      <c r="H458" s="2"/>
-      <c r="I458" s="2"/>
-      <c r="J458" s="2"/>
+      <c r="F458" s="55"/>
+      <c r="G458" s="55"/>
+      <c r="H458" s="55"/>
+      <c r="I458" s="55"/>
+      <c r="J458" s="55"/>
       <c r="K458" s="2"/>
       <c r="L458" s="2"/>
       <c r="M458" s="2"/>
@@ -14461,11 +17249,11 @@
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
-      <c r="F459" s="2"/>
-      <c r="G459" s="2"/>
-      <c r="H459" s="2"/>
-      <c r="I459" s="2"/>
-      <c r="J459" s="2"/>
+      <c r="F459" s="3"/>
+      <c r="G459" s="3"/>
+      <c r="H459" s="3"/>
+      <c r="I459" s="3"/>
+      <c r="J459" s="3"/>
       <c r="K459" s="2"/>
       <c r="L459" s="2"/>
       <c r="M459" s="2"/>
@@ -14479,11 +17267,11 @@
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
-      <c r="F460" s="2"/>
-      <c r="G460" s="2"/>
-      <c r="H460" s="2"/>
-      <c r="I460" s="2"/>
-      <c r="J460" s="2"/>
+      <c r="F460" s="3"/>
+      <c r="G460" s="3"/>
+      <c r="H460" s="3"/>
+      <c r="I460" s="3"/>
+      <c r="J460" s="3"/>
       <c r="K460" s="2"/>
       <c r="L460" s="2"/>
       <c r="M460" s="2"/>
@@ -14491,17 +17279,17 @@
       <c r="O460" s="2"/>
       <c r="P460" s="2"/>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
-      <c r="F461" s="2"/>
-      <c r="G461" s="2"/>
-      <c r="H461" s="2"/>
-      <c r="I461" s="2"/>
-      <c r="J461" s="2"/>
+      <c r="F461" s="4"/>
+      <c r="G461" s="4"/>
+      <c r="H461" s="4"/>
+      <c r="I461" s="4"/>
+      <c r="J461" s="4"/>
       <c r="K461" s="2"/>
       <c r="L461" s="2"/>
       <c r="M461" s="2"/>
@@ -14509,17 +17297,17 @@
       <c r="O461" s="2"/>
       <c r="P461" s="2"/>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
-      <c r="F462" s="2"/>
-      <c r="G462" s="2"/>
-      <c r="H462" s="2"/>
-      <c r="I462" s="2"/>
-      <c r="J462" s="2"/>
+      <c r="F462" s="4"/>
+      <c r="G462" s="4"/>
+      <c r="H462" s="4"/>
+      <c r="I462" s="4"/>
+      <c r="J462" s="4"/>
       <c r="K462" s="2"/>
       <c r="L462" s="2"/>
       <c r="M462" s="2"/>
@@ -14527,17 +17315,17 @@
       <c r="O462" s="2"/>
       <c r="P462" s="2"/>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
-      <c r="F463" s="2"/>
-      <c r="G463" s="2"/>
-      <c r="H463" s="2"/>
-      <c r="I463" s="2"/>
-      <c r="J463" s="2"/>
+      <c r="F463" s="4"/>
+      <c r="G463" s="4"/>
+      <c r="H463" s="4"/>
+      <c r="I463" s="4"/>
+      <c r="J463" s="4"/>
       <c r="K463" s="2"/>
       <c r="L463" s="2"/>
       <c r="M463" s="2"/>
@@ -14545,17 +17333,17 @@
       <c r="O463" s="2"/>
       <c r="P463" s="2"/>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
-      <c r="F464" s="2"/>
-      <c r="G464" s="2"/>
-      <c r="H464" s="2"/>
-      <c r="I464" s="2"/>
-      <c r="J464" s="2"/>
+      <c r="F464" s="4"/>
+      <c r="G464" s="4"/>
+      <c r="H464" s="4"/>
+      <c r="I464" s="4"/>
+      <c r="J464" s="4"/>
       <c r="K464" s="2"/>
       <c r="L464" s="2"/>
       <c r="M464" s="2"/>
@@ -14563,17 +17351,17 @@
       <c r="O464" s="2"/>
       <c r="P464" s="2"/>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
-      <c r="F465" s="2"/>
-      <c r="G465" s="2"/>
-      <c r="H465" s="2"/>
-      <c r="I465" s="2"/>
-      <c r="J465" s="2"/>
+      <c r="F465" s="4"/>
+      <c r="G465" s="4"/>
+      <c r="H465" s="4"/>
+      <c r="I465" s="4"/>
+      <c r="J465" s="4"/>
       <c r="K465" s="2"/>
       <c r="L465" s="2"/>
       <c r="M465" s="2"/>
@@ -14581,17 +17369,17 @@
       <c r="O465" s="2"/>
       <c r="P465" s="2"/>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
-      <c r="F466" s="2"/>
-      <c r="G466" s="2"/>
-      <c r="H466" s="2"/>
-      <c r="I466" s="2"/>
-      <c r="J466" s="2"/>
+      <c r="F466" s="4"/>
+      <c r="G466" s="4"/>
+      <c r="H466" s="4"/>
+      <c r="I466" s="4"/>
+      <c r="J466" s="4"/>
       <c r="K466" s="2"/>
       <c r="L466" s="2"/>
       <c r="M466" s="2"/>
@@ -14605,11 +17393,11 @@
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
-      <c r="F467" s="2"/>
-      <c r="G467" s="2"/>
-      <c r="H467" s="2"/>
-      <c r="I467" s="2"/>
-      <c r="J467" s="2"/>
+      <c r="F467" s="3"/>
+      <c r="G467" s="3"/>
+      <c r="H467" s="3"/>
+      <c r="I467" s="3"/>
+      <c r="J467" s="3"/>
       <c r="K467" s="2"/>
       <c r="L467" s="2"/>
       <c r="M467" s="2"/>
@@ -14623,11 +17411,11 @@
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
-      <c r="F468" s="2"/>
-      <c r="G468" s="2"/>
-      <c r="H468" s="2"/>
-      <c r="I468" s="2"/>
-      <c r="J468" s="2"/>
+      <c r="F468" s="3"/>
+      <c r="G468" s="3"/>
+      <c r="H468" s="3"/>
+      <c r="I468" s="3"/>
+      <c r="J468" s="3"/>
       <c r="K468" s="2"/>
       <c r="L468" s="2"/>
       <c r="M468" s="2"/>
@@ -14641,11 +17429,11 @@
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
-      <c r="F469" s="2"/>
-      <c r="G469" s="2"/>
-      <c r="H469" s="2"/>
-      <c r="I469" s="2"/>
-      <c r="J469" s="2"/>
+      <c r="F469" s="3"/>
+      <c r="G469" s="3"/>
+      <c r="H469" s="3"/>
+      <c r="I469" s="3"/>
+      <c r="J469" s="3"/>
       <c r="K469" s="2"/>
       <c r="L469" s="2"/>
       <c r="M469" s="2"/>
@@ -14659,11 +17447,11 @@
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
-      <c r="F470" s="2"/>
-      <c r="G470" s="2"/>
-      <c r="H470" s="2"/>
-      <c r="I470" s="2"/>
-      <c r="J470" s="2"/>
+      <c r="F470" s="3"/>
+      <c r="G470" s="3"/>
+      <c r="H470" s="3"/>
+      <c r="I470" s="3"/>
+      <c r="J470" s="3"/>
       <c r="K470" s="2"/>
       <c r="L470" s="2"/>
       <c r="M470" s="2"/>
@@ -14677,11 +17465,11 @@
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
-      <c r="F471" s="2"/>
-      <c r="G471" s="2"/>
-      <c r="H471" s="2"/>
-      <c r="I471" s="2"/>
-      <c r="J471" s="2"/>
+      <c r="F471" s="3"/>
+      <c r="G471" s="3"/>
+      <c r="H471" s="3"/>
+      <c r="I471" s="3"/>
+      <c r="J471" s="3"/>
       <c r="K471" s="2"/>
       <c r="L471" s="2"/>
       <c r="M471" s="2"/>
@@ -14695,11 +17483,11 @@
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
-      <c r="F472" s="2"/>
-      <c r="G472" s="2"/>
-      <c r="H472" s="2"/>
-      <c r="I472" s="2"/>
-      <c r="J472" s="2"/>
+      <c r="F472" s="3"/>
+      <c r="G472" s="3"/>
+      <c r="H472" s="3"/>
+      <c r="I472" s="3"/>
+      <c r="J472" s="3"/>
       <c r="K472" s="2"/>
       <c r="L472" s="2"/>
       <c r="M472" s="2"/>
@@ -14713,11 +17501,11 @@
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
-      <c r="F473" s="2"/>
-      <c r="G473" s="2"/>
-      <c r="H473" s="2"/>
-      <c r="I473" s="2"/>
-      <c r="J473" s="2"/>
+      <c r="F473" s="3"/>
+      <c r="G473" s="3"/>
+      <c r="H473" s="3"/>
+      <c r="I473" s="3"/>
+      <c r="J473" s="3"/>
       <c r="K473" s="2"/>
       <c r="L473" s="2"/>
       <c r="M473" s="2"/>
@@ -14731,11 +17519,11 @@
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
-      <c r="F474" s="2"/>
-      <c r="G474" s="2"/>
-      <c r="H474" s="2"/>
-      <c r="I474" s="2"/>
-      <c r="J474" s="2"/>
+      <c r="F474" s="3"/>
+      <c r="G474" s="3"/>
+      <c r="H474" s="3"/>
+      <c r="I474" s="3"/>
+      <c r="J474" s="3"/>
       <c r="K474" s="2"/>
       <c r="L474" s="2"/>
       <c r="M474" s="2"/>
@@ -14749,11 +17537,11 @@
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
-      <c r="F475" s="2"/>
-      <c r="G475" s="2"/>
-      <c r="H475" s="2"/>
-      <c r="I475" s="2"/>
-      <c r="J475" s="2"/>
+      <c r="F475" s="3"/>
+      <c r="G475" s="3"/>
+      <c r="H475" s="3"/>
+      <c r="I475" s="3"/>
+      <c r="J475" s="3"/>
       <c r="K475" s="2"/>
       <c r="L475" s="2"/>
       <c r="M475" s="2"/>
@@ -14767,11 +17555,11 @@
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
-      <c r="F476" s="2"/>
-      <c r="G476" s="2"/>
-      <c r="H476" s="2"/>
-      <c r="I476" s="2"/>
-      <c r="J476" s="2"/>
+      <c r="F476" s="3"/>
+      <c r="G476" s="3"/>
+      <c r="H476" s="3"/>
+      <c r="I476" s="3"/>
+      <c r="J476" s="3"/>
       <c r="K476" s="2"/>
       <c r="L476" s="2"/>
       <c r="M476" s="2"/>
@@ -14785,11 +17573,11 @@
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
-      <c r="F477" s="2"/>
-      <c r="G477" s="2"/>
-      <c r="H477" s="2"/>
-      <c r="I477" s="2"/>
-      <c r="J477" s="2"/>
+      <c r="F477" s="3"/>
+      <c r="G477" s="3"/>
+      <c r="H477" s="3"/>
+      <c r="I477" s="3"/>
+      <c r="J477" s="3"/>
       <c r="K477" s="2"/>
       <c r="L477" s="2"/>
       <c r="M477" s="2"/>
@@ -14803,11 +17591,11 @@
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
-      <c r="F478" s="2"/>
-      <c r="G478" s="2"/>
-      <c r="H478" s="2"/>
-      <c r="I478" s="2"/>
-      <c r="J478" s="2"/>
+      <c r="F478" s="3"/>
+      <c r="G478" s="3"/>
+      <c r="H478" s="3"/>
+      <c r="I478" s="3"/>
+      <c r="J478" s="3"/>
       <c r="K478" s="2"/>
       <c r="L478" s="2"/>
       <c r="M478" s="2"/>
@@ -14959,8 +17747,2473 @@
       <c r="O486" s="2"/>
       <c r="P486" s="2"/>
     </row>
+    <row r="487" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A487" s="2"/>
+      <c r="B487" s="2"/>
+      <c r="C487" s="2"/>
+      <c r="D487" s="2"/>
+      <c r="E487" s="2"/>
+      <c r="F487" s="2"/>
+      <c r="G487" s="2"/>
+      <c r="H487" s="2"/>
+      <c r="I487" s="2"/>
+      <c r="J487" s="2"/>
+      <c r="K487" s="2"/>
+      <c r="L487" s="2"/>
+      <c r="M487" s="2"/>
+      <c r="N487" s="2"/>
+      <c r="O487" s="2"/>
+      <c r="P487" s="2"/>
+    </row>
+    <row r="488" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A488" s="2"/>
+      <c r="B488" s="2"/>
+      <c r="C488" s="2"/>
+      <c r="D488" s="2"/>
+      <c r="E488" s="2"/>
+      <c r="F488" s="2"/>
+      <c r="G488" s="2"/>
+      <c r="H488" s="2"/>
+      <c r="I488" s="2"/>
+      <c r="J488" s="2"/>
+      <c r="K488" s="2"/>
+      <c r="L488" s="2"/>
+      <c r="M488" s="2"/>
+      <c r="N488" s="2"/>
+      <c r="O488" s="2"/>
+      <c r="P488" s="2"/>
+    </row>
+    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A489" s="2"/>
+      <c r="B489" s="2"/>
+      <c r="C489" s="2"/>
+      <c r="D489" s="2"/>
+      <c r="E489" s="2"/>
+      <c r="F489" s="2"/>
+      <c r="G489" s="2"/>
+      <c r="H489" s="2"/>
+      <c r="I489" s="2"/>
+      <c r="J489" s="2"/>
+      <c r="K489" s="2"/>
+      <c r="L489" s="2"/>
+      <c r="M489" s="2"/>
+      <c r="N489" s="2"/>
+      <c r="O489" s="2"/>
+      <c r="P489" s="2"/>
+    </row>
+    <row r="490" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A490" s="2"/>
+      <c r="B490" s="2"/>
+      <c r="C490" s="2"/>
+      <c r="D490" s="2"/>
+      <c r="E490" s="2"/>
+      <c r="F490" s="2"/>
+      <c r="G490" s="2"/>
+      <c r="H490" s="2"/>
+      <c r="I490" s="2"/>
+      <c r="J490" s="2"/>
+      <c r="K490" s="2"/>
+      <c r="L490" s="2"/>
+      <c r="M490" s="2"/>
+      <c r="N490" s="2"/>
+      <c r="O490" s="2"/>
+      <c r="P490" s="2"/>
+    </row>
+    <row r="491" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A491" s="2"/>
+      <c r="B491" s="2"/>
+      <c r="C491" s="2"/>
+      <c r="D491" s="2"/>
+      <c r="E491" s="2"/>
+      <c r="F491" s="2"/>
+      <c r="G491" s="2"/>
+      <c r="H491" s="2"/>
+      <c r="I491" s="2"/>
+      <c r="J491" s="2"/>
+      <c r="K491" s="2"/>
+      <c r="L491" s="2"/>
+      <c r="M491" s="2"/>
+      <c r="N491" s="2"/>
+      <c r="O491" s="2"/>
+      <c r="P491" s="2"/>
+    </row>
+    <row r="492" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A492" s="2"/>
+      <c r="B492" s="2"/>
+      <c r="C492" s="2"/>
+      <c r="D492" s="2"/>
+      <c r="E492" s="2"/>
+      <c r="F492" s="2"/>
+      <c r="G492" s="2"/>
+      <c r="H492" s="2"/>
+      <c r="I492" s="2"/>
+      <c r="J492" s="2"/>
+      <c r="K492" s="2"/>
+      <c r="L492" s="2"/>
+      <c r="M492" s="2"/>
+      <c r="N492" s="2"/>
+      <c r="O492" s="2"/>
+      <c r="P492" s="2"/>
+    </row>
+    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A493" s="2"/>
+      <c r="B493" s="2"/>
+      <c r="C493" s="2"/>
+      <c r="D493" s="2"/>
+      <c r="E493" s="2"/>
+      <c r="F493" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G493" s="32"/>
+      <c r="H493" s="32"/>
+      <c r="I493" s="32"/>
+      <c r="J493" s="32"/>
+      <c r="K493" s="2"/>
+      <c r="L493" s="2"/>
+      <c r="M493" s="2"/>
+      <c r="N493" s="2"/>
+      <c r="O493" s="2"/>
+      <c r="P493" s="2"/>
+    </row>
+    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A494" s="2"/>
+      <c r="B494" s="2"/>
+      <c r="C494" s="2"/>
+      <c r="D494" s="2"/>
+      <c r="E494" s="2"/>
+      <c r="F494" s="33"/>
+      <c r="G494" s="33"/>
+      <c r="H494" s="33"/>
+      <c r="I494" s="33"/>
+      <c r="J494" s="33"/>
+      <c r="K494" s="2"/>
+      <c r="L494" s="2"/>
+      <c r="M494" s="2"/>
+      <c r="N494" s="2"/>
+      <c r="O494" s="2"/>
+      <c r="P494" s="2"/>
+    </row>
+    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A495" s="2"/>
+      <c r="B495" s="2"/>
+      <c r="C495" s="2"/>
+      <c r="D495" s="2"/>
+      <c r="E495" s="2"/>
+      <c r="F495" s="14"/>
+      <c r="G495" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H495" s="8"/>
+      <c r="I495" s="8"/>
+      <c r="J495" s="9"/>
+      <c r="K495" s="2"/>
+      <c r="L495" s="2"/>
+      <c r="M495" s="2"/>
+      <c r="N495" s="2"/>
+      <c r="O495" s="2"/>
+      <c r="P495" s="2"/>
+    </row>
+    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A496" s="2"/>
+      <c r="B496" s="2"/>
+      <c r="C496" s="2"/>
+      <c r="D496" s="2"/>
+      <c r="E496" s="2"/>
+      <c r="F496" s="15"/>
+      <c r="G496" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H496" s="10"/>
+      <c r="I496" s="10"/>
+      <c r="J496" s="11"/>
+      <c r="K496" s="2"/>
+      <c r="L496" s="2"/>
+      <c r="M496" s="2"/>
+      <c r="N496" s="2"/>
+      <c r="O496" s="2"/>
+      <c r="P496" s="2"/>
+    </row>
+    <row r="497" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A497" s="2"/>
+      <c r="B497" s="2"/>
+      <c r="C497" s="2"/>
+      <c r="D497" s="2"/>
+      <c r="E497" s="2"/>
+      <c r="F497" s="16"/>
+      <c r="G497" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H497" s="12"/>
+      <c r="I497" s="25"/>
+      <c r="J497" s="13"/>
+      <c r="K497" s="2"/>
+      <c r="L497" s="2"/>
+      <c r="M497" s="2"/>
+      <c r="N497" s="2"/>
+      <c r="O497" s="2"/>
+      <c r="P497" s="2"/>
+    </row>
+    <row r="498" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A498" s="2"/>
+      <c r="B498" s="2"/>
+      <c r="C498" s="2"/>
+      <c r="D498" s="2"/>
+      <c r="E498" s="2"/>
+      <c r="F498" s="14"/>
+      <c r="G498" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H498" s="8"/>
+      <c r="I498" s="8"/>
+      <c r="J498" s="9"/>
+      <c r="K498" s="2"/>
+      <c r="L498" s="2"/>
+      <c r="M498" s="2"/>
+      <c r="N498" s="2"/>
+      <c r="O498" s="2"/>
+      <c r="P498" s="2"/>
+    </row>
+    <row r="499" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A499" s="2"/>
+      <c r="B499" s="2"/>
+      <c r="C499" s="2"/>
+      <c r="D499" s="2"/>
+      <c r="E499" s="2"/>
+      <c r="F499" s="15"/>
+      <c r="G499" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H499" s="10"/>
+      <c r="I499" s="10"/>
+      <c r="J499" s="11"/>
+      <c r="K499" s="2"/>
+      <c r="L499" s="2"/>
+      <c r="M499" s="2"/>
+      <c r="N499" s="2"/>
+      <c r="O499" s="2"/>
+      <c r="P499" s="2"/>
+    </row>
+    <row r="500" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A500" s="2"/>
+      <c r="B500" s="2"/>
+      <c r="C500" s="2"/>
+      <c r="D500" s="2"/>
+      <c r="E500" s="2"/>
+      <c r="F500" s="16"/>
+      <c r="G500" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H500" s="12"/>
+      <c r="I500" s="25"/>
+      <c r="J500" s="13"/>
+      <c r="K500" s="2"/>
+      <c r="L500" s="2"/>
+      <c r="M500" s="2"/>
+      <c r="N500" s="2"/>
+      <c r="O500" s="2"/>
+      <c r="P500" s="2"/>
+    </row>
+    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A501" s="2"/>
+      <c r="B501" s="2"/>
+      <c r="C501" s="2"/>
+      <c r="D501" s="2"/>
+      <c r="E501" s="2"/>
+      <c r="F501" s="2"/>
+      <c r="G501" s="2"/>
+      <c r="H501" s="2"/>
+      <c r="I501" s="2"/>
+      <c r="J501" s="2"/>
+      <c r="K501" s="2"/>
+      <c r="L501" s="2"/>
+      <c r="M501" s="2"/>
+      <c r="N501" s="2"/>
+      <c r="O501" s="2"/>
+      <c r="P501" s="2"/>
+    </row>
+    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A502" s="2"/>
+      <c r="B502" s="2"/>
+      <c r="C502" s="2"/>
+      <c r="D502" s="2"/>
+      <c r="E502" s="2"/>
+      <c r="F502" s="2"/>
+      <c r="G502" s="2"/>
+      <c r="H502" s="2"/>
+      <c r="I502" s="2"/>
+      <c r="J502" s="2"/>
+      <c r="K502" s="2"/>
+      <c r="L502" s="2"/>
+      <c r="M502" s="2"/>
+      <c r="N502" s="2"/>
+      <c r="O502" s="2"/>
+      <c r="P502" s="2"/>
+    </row>
+    <row r="503" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A503" s="2"/>
+      <c r="B503" s="2"/>
+      <c r="C503" s="2"/>
+      <c r="D503" s="2"/>
+      <c r="E503" s="2"/>
+      <c r="F503" s="2"/>
+      <c r="G503" s="2"/>
+      <c r="H503" s="2"/>
+      <c r="I503" s="2"/>
+      <c r="J503" s="2"/>
+      <c r="K503" s="2"/>
+      <c r="L503" s="2"/>
+      <c r="M503" s="2"/>
+      <c r="N503" s="2"/>
+      <c r="O503" s="2"/>
+      <c r="P503" s="2"/>
+    </row>
+    <row r="504" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A504" s="2"/>
+      <c r="B504" s="2"/>
+      <c r="C504" s="2"/>
+      <c r="D504" s="2"/>
+      <c r="E504" s="2"/>
+      <c r="F504" s="2"/>
+      <c r="G504" s="2"/>
+      <c r="H504" s="2"/>
+      <c r="I504" s="2"/>
+      <c r="J504" s="2"/>
+      <c r="K504" s="2"/>
+      <c r="L504" s="2"/>
+      <c r="M504" s="2"/>
+      <c r="N504" s="2"/>
+      <c r="O504" s="2"/>
+      <c r="P504" s="2"/>
+    </row>
+    <row r="505" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A505" s="2"/>
+      <c r="B505" s="2"/>
+      <c r="C505" s="2"/>
+      <c r="D505" s="2"/>
+      <c r="E505" s="2"/>
+      <c r="F505" s="2"/>
+      <c r="G505" s="2"/>
+      <c r="H505" s="2"/>
+      <c r="I505" s="2"/>
+      <c r="J505" s="2"/>
+      <c r="K505" s="2"/>
+      <c r="L505" s="2"/>
+      <c r="M505" s="2"/>
+      <c r="N505" s="2"/>
+      <c r="O505" s="2"/>
+      <c r="P505" s="2"/>
+    </row>
+    <row r="506" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A506" s="2"/>
+      <c r="B506" s="2"/>
+      <c r="C506" s="2"/>
+      <c r="D506" s="2"/>
+      <c r="E506" s="2"/>
+      <c r="F506" s="2"/>
+      <c r="G506" s="2"/>
+      <c r="H506" s="2"/>
+      <c r="I506" s="2"/>
+      <c r="J506" s="2"/>
+      <c r="K506" s="2"/>
+      <c r="L506" s="2"/>
+      <c r="M506" s="2"/>
+      <c r="N506" s="2"/>
+      <c r="O506" s="2"/>
+      <c r="P506" s="2"/>
+    </row>
+    <row r="507" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A507" s="2"/>
+      <c r="B507" s="2"/>
+      <c r="C507" s="2"/>
+      <c r="D507" s="2"/>
+      <c r="E507" s="2"/>
+      <c r="F507" s="2"/>
+      <c r="G507" s="2"/>
+      <c r="H507" s="2"/>
+      <c r="I507" s="2"/>
+      <c r="J507" s="2"/>
+      <c r="K507" s="2"/>
+      <c r="L507" s="2"/>
+      <c r="M507" s="2"/>
+      <c r="N507" s="2"/>
+      <c r="O507" s="2"/>
+      <c r="P507" s="2"/>
+    </row>
+    <row r="508" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A508" s="2"/>
+      <c r="B508" s="2"/>
+      <c r="C508" s="2"/>
+      <c r="D508" s="2"/>
+      <c r="E508" s="2"/>
+      <c r="F508" s="2"/>
+      <c r="G508" s="2"/>
+      <c r="H508" s="2"/>
+      <c r="I508" s="2"/>
+      <c r="J508" s="2"/>
+      <c r="K508" s="2"/>
+      <c r="L508" s="2"/>
+      <c r="M508" s="2"/>
+      <c r="N508" s="2"/>
+      <c r="O508" s="2"/>
+      <c r="P508" s="2"/>
+    </row>
+    <row r="509" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A509" s="2"/>
+      <c r="B509" s="2"/>
+      <c r="C509" s="2"/>
+      <c r="D509" s="2"/>
+      <c r="E509" s="2"/>
+      <c r="F509" s="2"/>
+      <c r="G509" s="2"/>
+      <c r="H509" s="2"/>
+      <c r="I509" s="2"/>
+      <c r="J509" s="2"/>
+      <c r="K509" s="2"/>
+      <c r="L509" s="2"/>
+      <c r="M509" s="2"/>
+      <c r="N509" s="2"/>
+      <c r="O509" s="2"/>
+      <c r="P509" s="2"/>
+    </row>
+    <row r="510" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A510" s="2"/>
+      <c r="B510" s="2"/>
+      <c r="C510" s="2"/>
+      <c r="D510" s="2"/>
+      <c r="E510" s="2"/>
+      <c r="F510" s="2"/>
+      <c r="G510" s="2"/>
+      <c r="H510" s="2"/>
+      <c r="I510" s="2"/>
+      <c r="J510" s="2"/>
+      <c r="K510" s="2"/>
+      <c r="L510" s="2"/>
+      <c r="M510" s="2"/>
+      <c r="N510" s="2"/>
+      <c r="O510" s="2"/>
+      <c r="P510" s="2"/>
+    </row>
+    <row r="511" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A511" s="2"/>
+      <c r="B511" s="2"/>
+      <c r="C511" s="2"/>
+      <c r="D511" s="2"/>
+      <c r="E511" s="2"/>
+      <c r="F511" s="2"/>
+      <c r="G511" s="2"/>
+      <c r="H511" s="2"/>
+      <c r="I511" s="2"/>
+      <c r="J511" s="2"/>
+      <c r="K511" s="2"/>
+      <c r="L511" s="2"/>
+      <c r="M511" s="2"/>
+      <c r="N511" s="2"/>
+      <c r="O511" s="2"/>
+      <c r="P511" s="2"/>
+    </row>
+    <row r="512" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A512" s="2"/>
+      <c r="B512" s="2"/>
+      <c r="C512" s="2"/>
+      <c r="D512" s="2"/>
+      <c r="E512" s="2"/>
+      <c r="F512" s="2"/>
+      <c r="G512" s="2"/>
+      <c r="H512" s="2"/>
+      <c r="I512" s="2"/>
+      <c r="J512" s="2"/>
+      <c r="K512" s="2"/>
+      <c r="L512" s="2"/>
+      <c r="M512" s="2"/>
+      <c r="N512" s="2"/>
+      <c r="O512" s="2"/>
+      <c r="P512" s="2"/>
+    </row>
+    <row r="513" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A513" s="2"/>
+      <c r="B513" s="2"/>
+      <c r="C513" s="2"/>
+      <c r="D513" s="2"/>
+      <c r="E513" s="2"/>
+      <c r="F513" s="2"/>
+      <c r="G513" s="2"/>
+      <c r="H513" s="2"/>
+      <c r="I513" s="2"/>
+      <c r="J513" s="2"/>
+      <c r="K513" s="2"/>
+      <c r="L513" s="2"/>
+      <c r="M513" s="2"/>
+      <c r="N513" s="2"/>
+      <c r="O513" s="2"/>
+      <c r="P513" s="2"/>
+    </row>
+    <row r="514" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A514" s="2"/>
+      <c r="B514" s="2"/>
+      <c r="C514" s="2"/>
+      <c r="D514" s="2"/>
+      <c r="E514" s="2"/>
+      <c r="F514" s="2"/>
+      <c r="G514" s="2"/>
+      <c r="H514" s="2"/>
+      <c r="I514" s="2"/>
+      <c r="J514" s="2"/>
+      <c r="K514" s="2"/>
+      <c r="L514" s="2"/>
+      <c r="M514" s="2"/>
+      <c r="N514" s="2"/>
+      <c r="O514" s="2"/>
+      <c r="P514" s="2"/>
+    </row>
+    <row r="515" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A515" s="2"/>
+      <c r="B515" s="2"/>
+      <c r="C515" s="2"/>
+      <c r="D515" s="2"/>
+      <c r="E515" s="2"/>
+      <c r="F515" s="2"/>
+      <c r="G515" s="2"/>
+      <c r="H515" s="2"/>
+      <c r="I515" s="2"/>
+      <c r="J515" s="2"/>
+      <c r="K515" s="2"/>
+      <c r="L515" s="2"/>
+      <c r="M515" s="2"/>
+      <c r="N515" s="2"/>
+      <c r="O515" s="2"/>
+      <c r="P515" s="2"/>
+    </row>
+    <row r="516" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A516" s="2"/>
+      <c r="B516" s="2"/>
+      <c r="C516" s="2"/>
+      <c r="D516" s="2"/>
+      <c r="E516" s="2"/>
+      <c r="F516" s="2"/>
+      <c r="G516" s="2"/>
+      <c r="H516" s="2"/>
+      <c r="I516" s="2"/>
+      <c r="J516" s="2"/>
+      <c r="K516" s="2"/>
+      <c r="L516" s="2"/>
+      <c r="M516" s="2"/>
+      <c r="N516" s="2"/>
+      <c r="O516" s="2"/>
+      <c r="P516" s="2"/>
+    </row>
+    <row r="517" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A517" s="2"/>
+      <c r="B517" s="2"/>
+      <c r="C517" s="2"/>
+      <c r="D517" s="2"/>
+      <c r="E517" s="2"/>
+      <c r="F517" s="2"/>
+      <c r="G517" s="2"/>
+      <c r="H517" s="2"/>
+      <c r="I517" s="2"/>
+      <c r="J517" s="2"/>
+      <c r="K517" s="2"/>
+      <c r="L517" s="2"/>
+      <c r="M517" s="2"/>
+      <c r="N517" s="2"/>
+      <c r="O517" s="2"/>
+      <c r="P517" s="2"/>
+    </row>
+    <row r="518" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A518" s="2"/>
+      <c r="B518" s="2"/>
+      <c r="C518" s="2"/>
+      <c r="D518" s="2"/>
+      <c r="E518" s="2"/>
+      <c r="F518" s="2"/>
+      <c r="G518" s="2"/>
+      <c r="H518" s="2"/>
+      <c r="I518" s="2"/>
+      <c r="J518" s="2"/>
+      <c r="K518" s="2"/>
+      <c r="L518" s="2"/>
+      <c r="M518" s="2"/>
+      <c r="N518" s="2"/>
+      <c r="O518" s="2"/>
+      <c r="P518" s="2"/>
+    </row>
+    <row r="519" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A519" s="2"/>
+      <c r="B519" s="2"/>
+      <c r="C519" s="2"/>
+      <c r="D519" s="2"/>
+      <c r="E519" s="2"/>
+      <c r="F519" s="2"/>
+      <c r="G519" s="2"/>
+      <c r="H519" s="2"/>
+      <c r="I519" s="2"/>
+      <c r="J519" s="2"/>
+      <c r="K519" s="2"/>
+      <c r="L519" s="2"/>
+      <c r="M519" s="2"/>
+      <c r="N519" s="2"/>
+      <c r="O519" s="2"/>
+      <c r="P519" s="2"/>
+    </row>
+    <row r="520" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A520" s="2"/>
+      <c r="B520" s="2"/>
+      <c r="C520" s="2"/>
+      <c r="D520" s="2"/>
+      <c r="E520" s="2"/>
+      <c r="F520" s="2"/>
+      <c r="G520" s="2"/>
+      <c r="H520" s="2"/>
+      <c r="I520" s="2"/>
+      <c r="J520" s="2"/>
+      <c r="K520" s="2"/>
+      <c r="L520" s="2"/>
+      <c r="M520" s="2"/>
+      <c r="N520" s="2"/>
+      <c r="O520" s="2"/>
+      <c r="P520" s="2"/>
+    </row>
+    <row r="521" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A521" s="2"/>
+      <c r="B521" s="2"/>
+      <c r="C521" s="2"/>
+      <c r="D521" s="2"/>
+      <c r="E521" s="2"/>
+      <c r="F521" s="2"/>
+      <c r="G521" s="2"/>
+      <c r="H521" s="2"/>
+      <c r="I521" s="2"/>
+      <c r="J521" s="2"/>
+      <c r="K521" s="2"/>
+      <c r="L521" s="2"/>
+      <c r="M521" s="2"/>
+      <c r="N521" s="2"/>
+      <c r="O521" s="2"/>
+      <c r="P521" s="2"/>
+    </row>
+    <row r="522" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A522" s="2"/>
+      <c r="B522" s="2"/>
+      <c r="C522" s="2"/>
+      <c r="D522" s="2"/>
+      <c r="E522" s="2"/>
+      <c r="F522" s="2"/>
+      <c r="G522" s="2"/>
+      <c r="H522" s="2"/>
+      <c r="I522" s="2"/>
+      <c r="J522" s="2"/>
+      <c r="K522" s="2"/>
+      <c r="L522" s="2"/>
+      <c r="M522" s="2"/>
+      <c r="N522" s="2"/>
+      <c r="O522" s="2"/>
+      <c r="P522" s="2"/>
+    </row>
+    <row r="523" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A523" s="2"/>
+      <c r="B523" s="2"/>
+      <c r="C523" s="2"/>
+      <c r="D523" s="2"/>
+      <c r="E523" s="2"/>
+      <c r="F523" s="2"/>
+      <c r="G523" s="2"/>
+      <c r="H523" s="2"/>
+      <c r="I523" s="2"/>
+      <c r="J523" s="2"/>
+      <c r="K523" s="2"/>
+      <c r="L523" s="2"/>
+      <c r="M523" s="2"/>
+      <c r="N523" s="2"/>
+      <c r="O523" s="2"/>
+      <c r="P523" s="2"/>
+    </row>
+    <row r="524" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A524" s="2"/>
+      <c r="B524" s="2"/>
+      <c r="C524" s="2"/>
+      <c r="D524" s="2"/>
+      <c r="E524" s="2"/>
+      <c r="F524" s="2"/>
+      <c r="G524" s="2"/>
+      <c r="H524" s="2"/>
+      <c r="I524" s="2"/>
+      <c r="J524" s="2"/>
+      <c r="K524" s="2"/>
+      <c r="L524" s="2"/>
+      <c r="M524" s="2"/>
+      <c r="N524" s="2"/>
+      <c r="O524" s="2"/>
+      <c r="P524" s="2"/>
+    </row>
+    <row r="525" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A525" s="2"/>
+      <c r="B525" s="2"/>
+      <c r="C525" s="2"/>
+      <c r="D525" s="2"/>
+      <c r="E525" s="2"/>
+      <c r="F525" s="2"/>
+      <c r="G525" s="2"/>
+      <c r="H525" s="2"/>
+      <c r="I525" s="2"/>
+      <c r="J525" s="2"/>
+      <c r="K525" s="2"/>
+      <c r="L525" s="2"/>
+      <c r="M525" s="2"/>
+      <c r="N525" s="2"/>
+      <c r="O525" s="2"/>
+      <c r="P525" s="2"/>
+    </row>
+    <row r="526" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A526" s="2"/>
+      <c r="B526" s="2"/>
+      <c r="C526" s="2"/>
+      <c r="D526" s="2"/>
+      <c r="E526" s="2"/>
+      <c r="F526" s="2"/>
+      <c r="G526" s="2"/>
+      <c r="H526" s="2"/>
+      <c r="I526" s="2"/>
+      <c r="J526" s="2"/>
+      <c r="K526" s="2"/>
+      <c r="L526" s="2"/>
+      <c r="M526" s="2"/>
+      <c r="N526" s="2"/>
+      <c r="O526" s="2"/>
+      <c r="P526" s="2"/>
+    </row>
+    <row r="527" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A527" s="2"/>
+      <c r="B527" s="2"/>
+      <c r="C527" s="2"/>
+      <c r="D527" s="2"/>
+      <c r="E527" s="2"/>
+      <c r="F527" s="2"/>
+      <c r="G527" s="2"/>
+      <c r="H527" s="2"/>
+      <c r="I527" s="2"/>
+      <c r="J527" s="2"/>
+      <c r="K527" s="2"/>
+      <c r="L527" s="2"/>
+      <c r="M527" s="2"/>
+      <c r="N527" s="2"/>
+      <c r="O527" s="2"/>
+      <c r="P527" s="2"/>
+    </row>
+    <row r="528" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A528" s="2"/>
+      <c r="B528" s="2"/>
+      <c r="C528" s="2"/>
+      <c r="D528" s="2"/>
+      <c r="E528" s="2"/>
+      <c r="F528" s="2"/>
+      <c r="G528" s="2"/>
+      <c r="H528" s="2"/>
+      <c r="I528" s="2"/>
+      <c r="J528" s="2"/>
+      <c r="K528" s="2"/>
+      <c r="L528" s="2"/>
+      <c r="M528" s="2"/>
+      <c r="N528" s="2"/>
+      <c r="O528" s="2"/>
+      <c r="P528" s="2"/>
+    </row>
+    <row r="529" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A529" s="2"/>
+      <c r="B529" s="2"/>
+      <c r="C529" s="2"/>
+      <c r="D529" s="2"/>
+      <c r="E529" s="2"/>
+      <c r="F529" s="2"/>
+      <c r="G529" s="2"/>
+      <c r="H529" s="2"/>
+      <c r="I529" s="2"/>
+      <c r="J529" s="2"/>
+      <c r="K529" s="2"/>
+      <c r="L529" s="2"/>
+      <c r="M529" s="2"/>
+      <c r="N529" s="2"/>
+      <c r="O529" s="2"/>
+      <c r="P529" s="2"/>
+    </row>
+    <row r="530" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A530" s="2"/>
+      <c r="B530" s="2"/>
+      <c r="C530" s="2"/>
+      <c r="D530" s="2"/>
+      <c r="E530" s="2"/>
+      <c r="F530" s="2"/>
+      <c r="G530" s="2"/>
+      <c r="H530" s="2"/>
+      <c r="I530" s="2"/>
+      <c r="J530" s="2"/>
+      <c r="K530" s="2"/>
+      <c r="L530" s="2"/>
+      <c r="M530" s="2"/>
+      <c r="N530" s="2"/>
+      <c r="O530" s="2"/>
+      <c r="P530" s="2"/>
+    </row>
+    <row r="531" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A531" s="2"/>
+      <c r="B531" s="2"/>
+      <c r="C531" s="2"/>
+      <c r="D531" s="2"/>
+      <c r="E531" s="2"/>
+      <c r="F531" s="2"/>
+      <c r="G531" s="2"/>
+      <c r="H531" s="2"/>
+      <c r="I531" s="2"/>
+      <c r="J531" s="2"/>
+      <c r="K531" s="2"/>
+      <c r="L531" s="2"/>
+      <c r="M531" s="2"/>
+      <c r="N531" s="2"/>
+      <c r="O531" s="2"/>
+      <c r="P531" s="2"/>
+    </row>
+    <row r="532" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A532" s="2"/>
+      <c r="B532" s="2"/>
+      <c r="C532" s="2"/>
+      <c r="D532" s="2"/>
+      <c r="E532" s="2"/>
+      <c r="F532" s="2"/>
+      <c r="G532" s="2"/>
+      <c r="H532" s="2"/>
+      <c r="I532" s="2"/>
+      <c r="J532" s="2"/>
+      <c r="K532" s="2"/>
+      <c r="L532" s="2"/>
+      <c r="M532" s="2"/>
+      <c r="N532" s="2"/>
+      <c r="O532" s="2"/>
+      <c r="P532" s="2"/>
+    </row>
+    <row r="533" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="2"/>
+      <c r="B533" s="2"/>
+      <c r="C533" s="2"/>
+      <c r="D533" s="2"/>
+      <c r="E533" s="2"/>
+      <c r="F533" s="63"/>
+      <c r="G533" s="64"/>
+      <c r="H533" s="64"/>
+      <c r="I533" s="65"/>
+      <c r="J533" s="61"/>
+      <c r="K533" s="2"/>
+      <c r="L533" s="2"/>
+      <c r="M533" s="2"/>
+      <c r="N533" s="2"/>
+      <c r="O533" s="2"/>
+      <c r="P533" s="2"/>
+    </row>
+    <row r="534" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="2"/>
+      <c r="B534" s="2"/>
+      <c r="C534" s="2"/>
+      <c r="D534" s="2"/>
+      <c r="E534" s="2"/>
+      <c r="F534" s="66"/>
+      <c r="G534" s="67"/>
+      <c r="H534" s="67"/>
+      <c r="I534" s="68"/>
+      <c r="J534" s="62"/>
+      <c r="K534" s="2"/>
+      <c r="L534" s="2"/>
+      <c r="M534" s="2"/>
+      <c r="N534" s="2"/>
+      <c r="O534" s="2"/>
+      <c r="P534" s="2"/>
+    </row>
+    <row r="535" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A535" s="2"/>
+      <c r="B535" s="2"/>
+      <c r="C535" s="2"/>
+      <c r="D535" s="2"/>
+      <c r="E535" s="2"/>
+      <c r="F535" s="69"/>
+      <c r="G535" s="70"/>
+      <c r="H535" s="71"/>
+      <c r="I535" s="72"/>
+      <c r="J535" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K535" s="2"/>
+      <c r="L535" s="2"/>
+      <c r="M535" s="2"/>
+      <c r="N535" s="2"/>
+      <c r="O535" s="2"/>
+      <c r="P535" s="2"/>
+    </row>
+    <row r="536" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A536" s="2"/>
+      <c r="B536" s="2"/>
+      <c r="C536" s="2"/>
+      <c r="D536" s="2"/>
+      <c r="E536" s="2"/>
+      <c r="F536" s="69"/>
+      <c r="G536" s="70"/>
+      <c r="H536" s="71"/>
+      <c r="I536" s="72"/>
+      <c r="J536" s="11"/>
+      <c r="K536" s="2"/>
+      <c r="L536" s="2"/>
+      <c r="M536" s="2"/>
+      <c r="N536" s="2"/>
+      <c r="O536" s="2"/>
+      <c r="P536" s="2"/>
+    </row>
+    <row r="537" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A537" s="2"/>
+      <c r="B537" s="2"/>
+      <c r="C537" s="2"/>
+      <c r="D537" s="2"/>
+      <c r="E537" s="2"/>
+      <c r="F537" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="G537" s="71"/>
+      <c r="H537" s="71"/>
+      <c r="I537" s="73"/>
+      <c r="J537" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="K537" s="2"/>
+      <c r="L537" s="2"/>
+      <c r="M537" s="2"/>
+      <c r="N537" s="2"/>
+      <c r="O537" s="2"/>
+      <c r="P537" s="2"/>
+    </row>
+    <row r="538" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A538" s="2"/>
+      <c r="B538" s="2"/>
+      <c r="C538" s="2"/>
+      <c r="D538" s="2"/>
+      <c r="E538" s="2"/>
+      <c r="F538" s="69"/>
+      <c r="G538" s="70"/>
+      <c r="H538" s="71"/>
+      <c r="I538" s="72"/>
+      <c r="J538" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K538" s="2"/>
+      <c r="L538" s="2"/>
+      <c r="M538" s="2"/>
+      <c r="N538" s="2"/>
+      <c r="O538" s="2"/>
+      <c r="P538" s="2"/>
+    </row>
+    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A539" s="2"/>
+      <c r="B539" s="2"/>
+      <c r="C539" s="2"/>
+      <c r="D539" s="2"/>
+      <c r="E539" s="2"/>
+      <c r="F539" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="G539" s="76"/>
+      <c r="H539" s="76"/>
+      <c r="I539" s="77"/>
+      <c r="J539" s="11"/>
+      <c r="K539" s="2"/>
+      <c r="L539" s="2"/>
+      <c r="M539" s="2"/>
+      <c r="N539" s="2"/>
+      <c r="O539" s="2"/>
+      <c r="P539" s="2"/>
+    </row>
+    <row r="540" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="2"/>
+      <c r="B540" s="2"/>
+      <c r="C540" s="2"/>
+      <c r="D540" s="2"/>
+      <c r="E540" s="2"/>
+      <c r="F540" s="78"/>
+      <c r="G540" s="79"/>
+      <c r="H540" s="79"/>
+      <c r="I540" s="80"/>
+      <c r="J540" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="K540" s="2"/>
+      <c r="L540" s="2"/>
+      <c r="M540" s="2"/>
+      <c r="N540" s="2"/>
+      <c r="O540" s="2"/>
+      <c r="P540" s="2"/>
+    </row>
+    <row r="541" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A541" s="2"/>
+      <c r="B541" s="2"/>
+      <c r="C541" s="2"/>
+      <c r="D541" s="2"/>
+      <c r="E541" s="2"/>
+      <c r="F541" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="G541" s="76"/>
+      <c r="H541" s="76"/>
+      <c r="I541" s="77"/>
+      <c r="J541" s="2"/>
+      <c r="K541" s="2"/>
+      <c r="L541" s="2"/>
+      <c r="M541" s="2"/>
+      <c r="N541" s="2"/>
+      <c r="O541" s="2"/>
+      <c r="P541" s="2"/>
+    </row>
+    <row r="542" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A542" s="2"/>
+      <c r="B542" s="2"/>
+      <c r="C542" s="2"/>
+      <c r="D542" s="2"/>
+      <c r="E542" s="2"/>
+      <c r="F542" s="78"/>
+      <c r="G542" s="79"/>
+      <c r="H542" s="79"/>
+      <c r="I542" s="80"/>
+      <c r="J542" s="2"/>
+      <c r="K542" s="2"/>
+      <c r="L542" s="2"/>
+      <c r="M542" s="2"/>
+      <c r="N542" s="2"/>
+      <c r="O542" s="2"/>
+      <c r="P542" s="2"/>
+    </row>
+    <row r="543" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A543" s="2"/>
+      <c r="B543" s="2"/>
+      <c r="C543" s="2"/>
+      <c r="D543" s="2"/>
+      <c r="E543" s="2"/>
+      <c r="F543" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="G543" s="82"/>
+      <c r="H543" s="82"/>
+      <c r="I543" s="83"/>
+      <c r="J543" s="2"/>
+      <c r="K543" s="2"/>
+      <c r="L543" s="2"/>
+      <c r="M543" s="2"/>
+      <c r="N543" s="2"/>
+      <c r="O543" s="2"/>
+      <c r="P543" s="2"/>
+    </row>
+    <row r="544" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A544" s="2"/>
+      <c r="B544" s="2"/>
+      <c r="C544" s="2"/>
+      <c r="D544" s="2"/>
+      <c r="E544" s="2"/>
+      <c r="F544" s="84"/>
+      <c r="G544" s="85"/>
+      <c r="H544" s="85"/>
+      <c r="I544" s="86"/>
+      <c r="J544" s="2"/>
+      <c r="K544" s="2"/>
+      <c r="L544" s="2"/>
+      <c r="M544" s="2"/>
+      <c r="N544" s="2"/>
+      <c r="O544" s="2"/>
+      <c r="P544" s="2"/>
+    </row>
+    <row r="545" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A545" s="2"/>
+      <c r="B545" s="2"/>
+      <c r="C545" s="2"/>
+      <c r="D545" s="2"/>
+      <c r="E545" s="2"/>
+      <c r="F545" s="59"/>
+      <c r="G545" s="56"/>
+      <c r="H545" s="56"/>
+      <c r="I545" s="60"/>
+      <c r="J545" s="2"/>
+      <c r="K545" s="2"/>
+      <c r="L545" s="2"/>
+      <c r="M545" s="2"/>
+      <c r="N545" s="2"/>
+      <c r="O545" s="2"/>
+      <c r="P545" s="2"/>
+    </row>
+    <row r="546" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A546" s="2"/>
+      <c r="B546" s="2"/>
+      <c r="C546" s="2"/>
+      <c r="D546" s="2"/>
+      <c r="E546" s="2"/>
+      <c r="F546" s="59"/>
+      <c r="G546" s="56"/>
+      <c r="H546" s="56"/>
+      <c r="I546" s="60"/>
+      <c r="J546" s="2"/>
+      <c r="K546" s="2"/>
+      <c r="L546" s="2"/>
+      <c r="M546" s="2"/>
+      <c r="N546" s="2"/>
+      <c r="O546" s="2"/>
+      <c r="P546" s="2"/>
+    </row>
+    <row r="547" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A547" s="2"/>
+      <c r="B547" s="2"/>
+      <c r="C547" s="2"/>
+      <c r="D547" s="2"/>
+      <c r="E547" s="2"/>
+      <c r="F547" s="59"/>
+      <c r="G547" s="56"/>
+      <c r="H547" s="56"/>
+      <c r="I547" s="60"/>
+      <c r="J547" s="2"/>
+      <c r="K547" s="2"/>
+      <c r="L547" s="2"/>
+      <c r="M547" s="2"/>
+      <c r="N547" s="2"/>
+      <c r="O547" s="2"/>
+      <c r="P547" s="2"/>
+    </row>
+    <row r="548" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A548" s="2"/>
+      <c r="B548" s="2"/>
+      <c r="C548" s="2"/>
+      <c r="D548" s="2"/>
+      <c r="E548" s="2"/>
+      <c r="F548" s="59"/>
+      <c r="G548" s="56"/>
+      <c r="H548" s="56"/>
+      <c r="I548" s="60"/>
+      <c r="J548" s="2"/>
+      <c r="K548" s="2"/>
+      <c r="L548" s="2"/>
+      <c r="M548" s="2"/>
+      <c r="N548" s="2"/>
+      <c r="O548" s="2"/>
+      <c r="P548" s="2"/>
+    </row>
+    <row r="549" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A549" s="2"/>
+      <c r="B549" s="2"/>
+      <c r="C549" s="2"/>
+      <c r="D549" s="2"/>
+      <c r="E549" s="2"/>
+      <c r="F549" s="59"/>
+      <c r="G549" s="56"/>
+      <c r="H549" s="56"/>
+      <c r="I549" s="60"/>
+      <c r="J549" s="2"/>
+      <c r="K549" s="2"/>
+      <c r="L549" s="2"/>
+      <c r="M549" s="2"/>
+      <c r="N549" s="2"/>
+      <c r="O549" s="2"/>
+      <c r="P549" s="2"/>
+    </row>
+    <row r="550" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A550" s="2"/>
+      <c r="B550" s="2"/>
+      <c r="C550" s="2"/>
+      <c r="D550" s="2"/>
+      <c r="E550" s="2"/>
+      <c r="F550" s="59"/>
+      <c r="G550" s="56"/>
+      <c r="H550" s="56"/>
+      <c r="I550" s="60"/>
+      <c r="J550" s="2"/>
+      <c r="K550" s="2"/>
+      <c r="L550" s="2"/>
+      <c r="M550" s="2"/>
+      <c r="N550" s="2"/>
+      <c r="O550" s="2"/>
+      <c r="P550" s="2"/>
+    </row>
+    <row r="551" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A551" s="2"/>
+      <c r="B551" s="2"/>
+      <c r="C551" s="2"/>
+      <c r="D551" s="2"/>
+      <c r="E551" s="2"/>
+      <c r="F551" s="59"/>
+      <c r="G551" s="56"/>
+      <c r="H551" s="56"/>
+      <c r="I551" s="60"/>
+      <c r="J551" s="2"/>
+      <c r="K551" s="2"/>
+      <c r="L551" s="2"/>
+      <c r="M551" s="2"/>
+      <c r="N551" s="2"/>
+      <c r="O551" s="2"/>
+      <c r="P551" s="2"/>
+    </row>
+    <row r="552" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A552" s="2"/>
+      <c r="B552" s="2"/>
+      <c r="C552" s="2"/>
+      <c r="D552" s="2"/>
+      <c r="E552" s="2"/>
+      <c r="F552" s="59"/>
+      <c r="G552" s="56"/>
+      <c r="H552" s="56"/>
+      <c r="I552" s="60"/>
+      <c r="J552" s="2"/>
+      <c r="K552" s="2"/>
+      <c r="L552" s="2"/>
+      <c r="M552" s="2"/>
+      <c r="N552" s="2"/>
+      <c r="O552" s="2"/>
+      <c r="P552" s="2"/>
+    </row>
+    <row r="553" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A553" s="2"/>
+      <c r="B553" s="2"/>
+      <c r="C553" s="2"/>
+      <c r="D553" s="2"/>
+      <c r="E553" s="2"/>
+      <c r="F553" s="59"/>
+      <c r="G553" s="56"/>
+      <c r="H553" s="56"/>
+      <c r="I553" s="60"/>
+      <c r="J553" s="2"/>
+      <c r="K553" s="2"/>
+      <c r="L553" s="2"/>
+      <c r="M553" s="2"/>
+      <c r="N553" s="2"/>
+      <c r="O553" s="2"/>
+      <c r="P553" s="2"/>
+    </row>
+    <row r="554" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A554" s="2"/>
+      <c r="B554" s="2"/>
+      <c r="C554" s="2"/>
+      <c r="D554" s="2"/>
+      <c r="E554" s="2"/>
+      <c r="F554" s="59"/>
+      <c r="G554" s="56"/>
+      <c r="H554" s="56"/>
+      <c r="I554" s="60"/>
+      <c r="J554" s="2"/>
+      <c r="K554" s="2"/>
+      <c r="L554" s="2"/>
+      <c r="M554" s="2"/>
+      <c r="N554" s="2"/>
+      <c r="O554" s="2"/>
+      <c r="P554" s="2"/>
+    </row>
+    <row r="555" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A555" s="2"/>
+      <c r="B555" s="2"/>
+      <c r="C555" s="2"/>
+      <c r="D555" s="2"/>
+      <c r="E555" s="2"/>
+      <c r="F555" s="59"/>
+      <c r="G555" s="56"/>
+      <c r="H555" s="56"/>
+      <c r="I555" s="60"/>
+      <c r="J555" s="2"/>
+      <c r="K555" s="2"/>
+      <c r="L555" s="2"/>
+      <c r="M555" s="2"/>
+      <c r="N555" s="2"/>
+      <c r="O555" s="2"/>
+      <c r="P555" s="2"/>
+    </row>
+    <row r="556" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A556" s="2"/>
+      <c r="B556" s="2"/>
+      <c r="C556" s="2"/>
+      <c r="D556" s="2"/>
+      <c r="E556" s="2"/>
+      <c r="F556" s="59"/>
+      <c r="G556" s="56"/>
+      <c r="H556" s="56"/>
+      <c r="I556" s="60"/>
+      <c r="J556" s="2"/>
+      <c r="K556" s="2"/>
+      <c r="L556" s="2"/>
+      <c r="M556" s="2"/>
+      <c r="N556" s="2"/>
+      <c r="O556" s="2"/>
+      <c r="P556" s="2"/>
+    </row>
+    <row r="557" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A557" s="2"/>
+      <c r="B557" s="2"/>
+      <c r="C557" s="2"/>
+      <c r="D557" s="2"/>
+      <c r="E557" s="2"/>
+      <c r="F557" s="59"/>
+      <c r="G557" s="56"/>
+      <c r="H557" s="56"/>
+      <c r="I557" s="60"/>
+      <c r="J557" s="2"/>
+      <c r="K557" s="2"/>
+      <c r="L557" s="2"/>
+      <c r="M557" s="2"/>
+      <c r="N557" s="2"/>
+      <c r="O557" s="2"/>
+      <c r="P557" s="2"/>
+    </row>
+    <row r="558" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A558" s="2"/>
+      <c r="B558" s="2"/>
+      <c r="C558" s="2"/>
+      <c r="D558" s="2"/>
+      <c r="E558" s="2"/>
+      <c r="F558" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="G558" s="76"/>
+      <c r="H558" s="76"/>
+      <c r="I558" s="77"/>
+      <c r="J558" s="2"/>
+      <c r="K558" s="2"/>
+      <c r="L558" s="2"/>
+      <c r="M558" s="2"/>
+      <c r="N558" s="2"/>
+      <c r="O558" s="2"/>
+      <c r="P558" s="2"/>
+    </row>
+    <row r="559" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A559" s="2"/>
+      <c r="B559" s="2"/>
+      <c r="C559" s="2"/>
+      <c r="D559" s="2"/>
+      <c r="E559" s="2"/>
+      <c r="F559" s="78"/>
+      <c r="G559" s="79"/>
+      <c r="H559" s="79"/>
+      <c r="I559" s="80"/>
+      <c r="J559" s="2"/>
+      <c r="K559" s="2"/>
+      <c r="L559" s="2"/>
+      <c r="M559" s="2"/>
+      <c r="N559" s="2"/>
+      <c r="O559" s="2"/>
+      <c r="P559" s="2"/>
+    </row>
+    <row r="560" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A560" s="2"/>
+      <c r="B560" s="2"/>
+      <c r="C560" s="2"/>
+      <c r="D560" s="2"/>
+      <c r="E560" s="2"/>
+      <c r="F560" s="2"/>
+      <c r="G560" s="2"/>
+      <c r="H560" s="2"/>
+      <c r="I560" s="2"/>
+      <c r="J560" s="2"/>
+      <c r="K560" s="2"/>
+      <c r="L560" s="2"/>
+      <c r="M560" s="2"/>
+      <c r="N560" s="2"/>
+      <c r="O560" s="2"/>
+      <c r="P560" s="2"/>
+    </row>
+    <row r="561" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A561" s="2"/>
+      <c r="B561" s="2"/>
+      <c r="C561" s="2"/>
+      <c r="D561" s="2"/>
+      <c r="E561" s="2"/>
+      <c r="F561" s="2"/>
+      <c r="G561" s="2"/>
+      <c r="H561" s="2"/>
+      <c r="I561" s="2"/>
+      <c r="J561" s="2"/>
+      <c r="K561" s="2"/>
+      <c r="L561" s="2"/>
+      <c r="M561" s="2"/>
+      <c r="N561" s="2"/>
+      <c r="O561" s="2"/>
+      <c r="P561" s="2"/>
+    </row>
+    <row r="562" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A562" s="2"/>
+      <c r="B562" s="2"/>
+      <c r="C562" s="2"/>
+      <c r="D562" s="2"/>
+      <c r="E562" s="2"/>
+      <c r="F562" s="2"/>
+      <c r="G562" s="2"/>
+      <c r="H562" s="2"/>
+      <c r="I562" s="2"/>
+      <c r="J562" s="2"/>
+      <c r="K562" s="2"/>
+      <c r="L562" s="2"/>
+      <c r="M562" s="2"/>
+      <c r="N562" s="2"/>
+      <c r="O562" s="2"/>
+      <c r="P562" s="2"/>
+    </row>
+    <row r="563" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A563" s="2"/>
+      <c r="B563" s="2"/>
+      <c r="C563" s="2"/>
+      <c r="D563" s="2"/>
+      <c r="E563" s="2"/>
+      <c r="F563" s="2"/>
+      <c r="G563" s="2"/>
+      <c r="H563" s="2"/>
+      <c r="I563" s="2"/>
+      <c r="J563" s="2"/>
+      <c r="K563" s="2"/>
+      <c r="L563" s="2"/>
+      <c r="M563" s="2"/>
+      <c r="N563" s="2"/>
+      <c r="O563" s="2"/>
+      <c r="P563" s="2"/>
+    </row>
+    <row r="564" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A564" s="2"/>
+      <c r="B564" s="2"/>
+      <c r="C564" s="2"/>
+      <c r="D564" s="2"/>
+      <c r="E564" s="2"/>
+      <c r="F564" s="2"/>
+      <c r="G564" s="2"/>
+      <c r="H564" s="2"/>
+      <c r="I564" s="2"/>
+      <c r="J564" s="2"/>
+      <c r="K564" s="2"/>
+      <c r="L564" s="2"/>
+      <c r="M564" s="2"/>
+      <c r="N564" s="2"/>
+      <c r="O564" s="2"/>
+      <c r="P564" s="2"/>
+    </row>
+    <row r="565" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A565" s="2"/>
+      <c r="B565" s="2"/>
+      <c r="C565" s="2"/>
+      <c r="D565" s="2"/>
+      <c r="E565" s="2"/>
+      <c r="F565" s="2"/>
+      <c r="G565" s="2"/>
+      <c r="H565" s="2"/>
+      <c r="I565" s="2"/>
+      <c r="J565" s="2"/>
+      <c r="K565" s="2"/>
+      <c r="L565" s="2"/>
+      <c r="M565" s="2"/>
+      <c r="N565" s="2"/>
+      <c r="O565" s="2"/>
+      <c r="P565" s="2"/>
+    </row>
+    <row r="566" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A566" s="2"/>
+      <c r="B566" s="2"/>
+      <c r="C566" s="2"/>
+      <c r="D566" s="2"/>
+      <c r="E566" s="2"/>
+      <c r="F566" s="2"/>
+      <c r="G566" s="2"/>
+      <c r="H566" s="2"/>
+      <c r="I566" s="2"/>
+      <c r="J566" s="2"/>
+      <c r="K566" s="2"/>
+      <c r="L566" s="2"/>
+      <c r="M566" s="2"/>
+      <c r="N566" s="2"/>
+      <c r="O566" s="2"/>
+      <c r="P566" s="2"/>
+    </row>
+    <row r="567" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A567" s="2"/>
+      <c r="B567" s="2"/>
+      <c r="C567" s="2"/>
+      <c r="D567" s="2"/>
+      <c r="E567" s="2"/>
+      <c r="F567" s="2"/>
+      <c r="G567" s="2"/>
+      <c r="H567" s="2"/>
+      <c r="I567" s="2"/>
+      <c r="J567" s="2"/>
+      <c r="K567" s="2"/>
+      <c r="L567" s="2"/>
+      <c r="M567" s="2"/>
+      <c r="N567" s="2"/>
+      <c r="O567" s="2"/>
+      <c r="P567" s="2"/>
+    </row>
+    <row r="568" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A568" s="2"/>
+      <c r="B568" s="2"/>
+      <c r="C568" s="2"/>
+      <c r="D568" s="2"/>
+      <c r="E568" s="2"/>
+      <c r="F568" s="2"/>
+      <c r="G568" s="2"/>
+      <c r="H568" s="2"/>
+      <c r="I568" s="2"/>
+      <c r="J568" s="2"/>
+      <c r="K568" s="2"/>
+      <c r="L568" s="2"/>
+      <c r="M568" s="2"/>
+      <c r="N568" s="2"/>
+      <c r="O568" s="2"/>
+      <c r="P568" s="2"/>
+    </row>
+    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A569" s="2"/>
+      <c r="B569" s="2"/>
+      <c r="C569" s="2"/>
+      <c r="D569" s="2"/>
+      <c r="E569" s="2"/>
+      <c r="F569" s="2"/>
+      <c r="G569" s="2"/>
+      <c r="H569" s="2"/>
+      <c r="I569" s="2"/>
+      <c r="J569" s="2"/>
+      <c r="K569" s="2"/>
+      <c r="L569" s="2"/>
+      <c r="M569" s="2"/>
+      <c r="N569" s="2"/>
+      <c r="O569" s="2"/>
+      <c r="P569" s="2"/>
+    </row>
+    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A570" s="2"/>
+      <c r="B570" s="2"/>
+      <c r="C570" s="2"/>
+      <c r="D570" s="2"/>
+      <c r="E570" s="2"/>
+      <c r="F570" s="2"/>
+      <c r="G570" s="2"/>
+      <c r="H570" s="2"/>
+      <c r="I570" s="2"/>
+      <c r="J570" s="2"/>
+      <c r="K570" s="2"/>
+      <c r="L570" s="2"/>
+      <c r="M570" s="2"/>
+      <c r="N570" s="2"/>
+      <c r="O570" s="2"/>
+      <c r="P570" s="2"/>
+    </row>
+    <row r="571" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A571" s="2"/>
+      <c r="B571" s="2"/>
+      <c r="C571" s="2"/>
+      <c r="D571" s="2"/>
+      <c r="E571" s="2"/>
+      <c r="F571" s="2"/>
+      <c r="G571" s="2"/>
+      <c r="H571" s="2"/>
+      <c r="I571" s="2"/>
+      <c r="J571" s="2"/>
+      <c r="K571" s="2"/>
+      <c r="L571" s="2"/>
+      <c r="M571" s="2"/>
+      <c r="N571" s="2"/>
+      <c r="O571" s="2"/>
+      <c r="P571" s="2"/>
+    </row>
+    <row r="572" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A572" s="2"/>
+      <c r="B572" s="2"/>
+      <c r="C572" s="2"/>
+      <c r="D572" s="2"/>
+      <c r="E572" s="2"/>
+      <c r="F572" s="2"/>
+      <c r="G572" s="2"/>
+      <c r="H572" s="2"/>
+      <c r="I572" s="2"/>
+      <c r="J572" s="2"/>
+      <c r="K572" s="2"/>
+      <c r="L572" s="2"/>
+      <c r="M572" s="2"/>
+      <c r="N572" s="2"/>
+      <c r="O572" s="2"/>
+      <c r="P572" s="2"/>
+    </row>
+    <row r="573" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A573" s="2"/>
+      <c r="B573" s="2"/>
+      <c r="C573" s="2"/>
+      <c r="D573" s="2"/>
+      <c r="E573" s="2"/>
+      <c r="F573" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G573" s="32"/>
+      <c r="H573" s="32"/>
+      <c r="I573" s="32"/>
+      <c r="J573" s="32"/>
+      <c r="K573" s="2"/>
+      <c r="L573" s="2"/>
+      <c r="M573" s="2"/>
+      <c r="N573" s="2"/>
+      <c r="O573" s="2"/>
+      <c r="P573" s="2"/>
+    </row>
+    <row r="574" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A574" s="2"/>
+      <c r="B574" s="2"/>
+      <c r="C574" s="2"/>
+      <c r="D574" s="2"/>
+      <c r="E574" s="2"/>
+      <c r="F574" s="33"/>
+      <c r="G574" s="33"/>
+      <c r="H574" s="33"/>
+      <c r="I574" s="33"/>
+      <c r="J574" s="33"/>
+      <c r="K574" s="2"/>
+      <c r="L574" s="2"/>
+      <c r="M574" s="2"/>
+      <c r="N574" s="2"/>
+      <c r="O574" s="2"/>
+      <c r="P574" s="2"/>
+    </row>
+    <row r="575" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A575" s="2"/>
+      <c r="B575" s="2"/>
+      <c r="C575" s="2"/>
+      <c r="D575" s="2"/>
+      <c r="E575" s="2"/>
+      <c r="F575" s="14"/>
+      <c r="G575" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H575" s="8"/>
+      <c r="I575" s="8"/>
+      <c r="J575" s="9"/>
+      <c r="K575" s="2"/>
+      <c r="L575" s="2"/>
+      <c r="M575" s="2"/>
+      <c r="N575" s="2"/>
+      <c r="O575" s="2"/>
+      <c r="P575" s="2"/>
+    </row>
+    <row r="576" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A576" s="2"/>
+      <c r="B576" s="2"/>
+      <c r="C576" s="2"/>
+      <c r="D576" s="2"/>
+      <c r="E576" s="2"/>
+      <c r="F576" s="15"/>
+      <c r="G576" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H576" s="10"/>
+      <c r="I576" s="10"/>
+      <c r="J576" s="11"/>
+      <c r="K576" s="2"/>
+      <c r="L576" s="2"/>
+      <c r="M576" s="2"/>
+      <c r="N576" s="2"/>
+      <c r="O576" s="2"/>
+      <c r="P576" s="2"/>
+    </row>
+    <row r="577" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A577" s="2"/>
+      <c r="B577" s="2"/>
+      <c r="C577" s="2"/>
+      <c r="D577" s="2"/>
+      <c r="E577" s="2"/>
+      <c r="F577" s="16"/>
+      <c r="G577" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H577" s="12"/>
+      <c r="I577" s="25"/>
+      <c r="J577" s="13"/>
+      <c r="K577" s="2"/>
+      <c r="L577" s="2"/>
+      <c r="M577" s="2"/>
+      <c r="N577" s="2"/>
+      <c r="O577" s="2"/>
+      <c r="P577" s="2"/>
+    </row>
+    <row r="578" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A578" s="2"/>
+      <c r="B578" s="2"/>
+      <c r="C578" s="2"/>
+      <c r="D578" s="2"/>
+      <c r="E578" s="2"/>
+      <c r="F578" s="14"/>
+      <c r="G578" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H578" s="8"/>
+      <c r="I578" s="8"/>
+      <c r="J578" s="9"/>
+      <c r="K578" s="2"/>
+      <c r="L578" s="2"/>
+      <c r="M578" s="2"/>
+      <c r="N578" s="2"/>
+      <c r="O578" s="2"/>
+      <c r="P578" s="2"/>
+    </row>
+    <row r="579" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A579" s="2"/>
+      <c r="B579" s="2"/>
+      <c r="C579" s="2"/>
+      <c r="D579" s="2"/>
+      <c r="E579" s="2"/>
+      <c r="F579" s="15"/>
+      <c r="G579" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H579" s="10"/>
+      <c r="I579" s="10"/>
+      <c r="J579" s="11"/>
+      <c r="K579" s="2"/>
+      <c r="L579" s="2"/>
+      <c r="M579" s="2"/>
+      <c r="N579" s="2"/>
+      <c r="O579" s="2"/>
+      <c r="P579" s="2"/>
+    </row>
+    <row r="580" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A580" s="2"/>
+      <c r="B580" s="2"/>
+      <c r="C580" s="2"/>
+      <c r="D580" s="2"/>
+      <c r="E580" s="2"/>
+      <c r="F580" s="16"/>
+      <c r="G580" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H580" s="12"/>
+      <c r="I580" s="25"/>
+      <c r="J580" s="13"/>
+      <c r="K580" s="2"/>
+      <c r="L580" s="2"/>
+      <c r="M580" s="2"/>
+      <c r="N580" s="2"/>
+      <c r="O580" s="2"/>
+      <c r="P580" s="2"/>
+    </row>
+    <row r="581" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A581" s="2"/>
+      <c r="B581" s="2"/>
+      <c r="C581" s="2"/>
+      <c r="D581" s="2"/>
+      <c r="E581" s="2"/>
+      <c r="F581" s="2"/>
+      <c r="G581" s="2"/>
+      <c r="H581" s="2"/>
+      <c r="I581" s="2"/>
+      <c r="J581" s="2"/>
+      <c r="K581" s="2"/>
+      <c r="L581" s="2"/>
+      <c r="M581" s="2"/>
+      <c r="N581" s="2"/>
+      <c r="O581" s="2"/>
+      <c r="P581" s="2"/>
+    </row>
+    <row r="582" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A582" s="2"/>
+      <c r="B582" s="2"/>
+      <c r="C582" s="2"/>
+      <c r="D582" s="2"/>
+      <c r="E582" s="2"/>
+      <c r="F582" s="2"/>
+      <c r="G582" s="2"/>
+      <c r="H582" s="2"/>
+      <c r="I582" s="2"/>
+      <c r="J582" s="2"/>
+      <c r="K582" s="2"/>
+      <c r="L582" s="2"/>
+      <c r="M582" s="2"/>
+      <c r="N582" s="2"/>
+      <c r="O582" s="2"/>
+      <c r="P582" s="2"/>
+    </row>
+    <row r="583" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A583" s="2"/>
+      <c r="B583" s="2"/>
+      <c r="C583" s="2"/>
+      <c r="D583" s="2"/>
+      <c r="E583" s="2"/>
+      <c r="F583" s="2"/>
+      <c r="G583" s="2"/>
+      <c r="H583" s="2"/>
+      <c r="I583" s="2"/>
+      <c r="J583" s="2"/>
+      <c r="K583" s="2"/>
+      <c r="L583" s="2"/>
+      <c r="M583" s="2"/>
+      <c r="N583" s="2"/>
+      <c r="O583" s="2"/>
+      <c r="P583" s="2"/>
+    </row>
+    <row r="584" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A584" s="2"/>
+      <c r="B584" s="2"/>
+      <c r="C584" s="2"/>
+      <c r="D584" s="2"/>
+      <c r="E584" s="2"/>
+      <c r="F584" s="2"/>
+      <c r="G584" s="2"/>
+      <c r="H584" s="2"/>
+      <c r="I584" s="2"/>
+      <c r="J584" s="2"/>
+      <c r="K584" s="2"/>
+      <c r="L584" s="2"/>
+      <c r="M584" s="2"/>
+      <c r="N584" s="2"/>
+      <c r="O584" s="2"/>
+      <c r="P584" s="2"/>
+    </row>
+    <row r="585" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A585" s="2"/>
+      <c r="B585" s="2"/>
+      <c r="C585" s="2"/>
+      <c r="D585" s="2"/>
+      <c r="E585" s="2"/>
+      <c r="F585" s="2"/>
+      <c r="G585" s="2"/>
+      <c r="H585" s="2"/>
+      <c r="I585" s="2"/>
+      <c r="J585" s="2"/>
+      <c r="K585" s="2"/>
+      <c r="L585" s="2"/>
+      <c r="M585" s="2"/>
+      <c r="N585" s="2"/>
+      <c r="O585" s="2"/>
+      <c r="P585" s="2"/>
+    </row>
+    <row r="586" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A586" s="2"/>
+      <c r="B586" s="2"/>
+      <c r="C586" s="2"/>
+      <c r="D586" s="2"/>
+      <c r="E586" s="2"/>
+      <c r="F586" s="2"/>
+      <c r="G586" s="2"/>
+      <c r="H586" s="2"/>
+      <c r="I586" s="2"/>
+      <c r="J586" s="2"/>
+      <c r="K586" s="2"/>
+      <c r="L586" s="2"/>
+      <c r="M586" s="2"/>
+      <c r="N586" s="2"/>
+      <c r="O586" s="2"/>
+      <c r="P586" s="2"/>
+    </row>
+    <row r="587" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A587" s="2"/>
+      <c r="B587" s="2"/>
+      <c r="C587" s="2"/>
+      <c r="D587" s="2"/>
+      <c r="E587" s="2"/>
+      <c r="F587" s="2"/>
+      <c r="G587" s="2"/>
+      <c r="H587" s="2"/>
+      <c r="I587" s="2"/>
+      <c r="J587" s="2"/>
+      <c r="K587" s="2"/>
+      <c r="L587" s="2"/>
+      <c r="M587" s="2"/>
+      <c r="N587" s="2"/>
+      <c r="O587" s="2"/>
+      <c r="P587" s="2"/>
+    </row>
+    <row r="588" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A588" s="2"/>
+      <c r="B588" s="2"/>
+      <c r="C588" s="2"/>
+      <c r="D588" s="2"/>
+      <c r="E588" s="2"/>
+      <c r="F588" s="2"/>
+      <c r="G588" s="2"/>
+      <c r="H588" s="2"/>
+      <c r="I588" s="2"/>
+      <c r="J588" s="2"/>
+      <c r="K588" s="2"/>
+      <c r="L588" s="2"/>
+      <c r="M588" s="2"/>
+      <c r="N588" s="2"/>
+      <c r="O588" s="2"/>
+      <c r="P588" s="2"/>
+    </row>
+    <row r="589" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A589" s="2"/>
+      <c r="B589" s="2"/>
+      <c r="C589" s="2"/>
+      <c r="D589" s="2"/>
+      <c r="E589" s="2"/>
+      <c r="F589" s="2"/>
+      <c r="G589" s="2"/>
+      <c r="H589" s="2"/>
+      <c r="I589" s="2"/>
+      <c r="J589" s="2"/>
+      <c r="K589" s="2"/>
+      <c r="L589" s="2"/>
+      <c r="M589" s="2"/>
+      <c r="N589" s="2"/>
+      <c r="O589" s="2"/>
+      <c r="P589" s="2"/>
+    </row>
+    <row r="590" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A590" s="2"/>
+      <c r="B590" s="2"/>
+      <c r="C590" s="2"/>
+      <c r="D590" s="2"/>
+      <c r="E590" s="2"/>
+      <c r="F590" s="2"/>
+      <c r="G590" s="2"/>
+      <c r="H590" s="2"/>
+      <c r="I590" s="2"/>
+      <c r="J590" s="2"/>
+      <c r="K590" s="2"/>
+      <c r="L590" s="2"/>
+      <c r="M590" s="2"/>
+      <c r="N590" s="2"/>
+      <c r="O590" s="2"/>
+      <c r="P590" s="2"/>
+    </row>
+    <row r="591" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A591" s="2"/>
+      <c r="B591" s="2"/>
+      <c r="C591" s="2"/>
+      <c r="D591" s="2"/>
+      <c r="E591" s="2"/>
+      <c r="F591" s="2"/>
+      <c r="G591" s="2"/>
+      <c r="H591" s="2"/>
+      <c r="I591" s="2"/>
+      <c r="J591" s="2"/>
+      <c r="K591" s="2"/>
+      <c r="L591" s="2"/>
+      <c r="M591" s="2"/>
+      <c r="N591" s="2"/>
+      <c r="O591" s="2"/>
+      <c r="P591" s="2"/>
+    </row>
+    <row r="592" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A592" s="2"/>
+      <c r="B592" s="2"/>
+      <c r="C592" s="2"/>
+      <c r="D592" s="2"/>
+      <c r="E592" s="2"/>
+      <c r="F592" s="2"/>
+      <c r="G592" s="2"/>
+      <c r="H592" s="2"/>
+      <c r="I592" s="2"/>
+      <c r="J592" s="2"/>
+      <c r="K592" s="2"/>
+      <c r="L592" s="2"/>
+      <c r="M592" s="2"/>
+      <c r="N592" s="2"/>
+      <c r="O592" s="2"/>
+      <c r="P592" s="2"/>
+    </row>
+    <row r="593" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A593" s="2"/>
+      <c r="B593" s="2"/>
+      <c r="C593" s="2"/>
+      <c r="D593" s="2"/>
+      <c r="E593" s="2"/>
+      <c r="F593" s="2"/>
+      <c r="G593" s="2"/>
+      <c r="H593" s="2"/>
+      <c r="I593" s="2"/>
+      <c r="J593" s="2"/>
+      <c r="K593" s="2"/>
+      <c r="L593" s="2"/>
+      <c r="M593" s="2"/>
+      <c r="N593" s="2"/>
+      <c r="O593" s="2"/>
+      <c r="P593" s="2"/>
+    </row>
+    <row r="594" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A594" s="2"/>
+      <c r="B594" s="2"/>
+      <c r="C594" s="2"/>
+      <c r="D594" s="2"/>
+      <c r="E594" s="2"/>
+      <c r="F594" s="2"/>
+      <c r="G594" s="2"/>
+      <c r="H594" s="2"/>
+      <c r="I594" s="2"/>
+      <c r="J594" s="2"/>
+      <c r="K594" s="2"/>
+      <c r="L594" s="2"/>
+      <c r="M594" s="2"/>
+      <c r="N594" s="2"/>
+      <c r="O594" s="2"/>
+      <c r="P594" s="2"/>
+    </row>
+    <row r="595" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A595" s="2"/>
+      <c r="B595" s="2"/>
+      <c r="C595" s="2"/>
+      <c r="D595" s="2"/>
+      <c r="E595" s="2"/>
+      <c r="F595" s="2"/>
+      <c r="G595" s="2"/>
+      <c r="H595" s="2"/>
+      <c r="I595" s="2"/>
+      <c r="J595" s="2"/>
+      <c r="K595" s="2"/>
+      <c r="L595" s="2"/>
+      <c r="M595" s="2"/>
+      <c r="N595" s="2"/>
+      <c r="O595" s="2"/>
+      <c r="P595" s="2"/>
+    </row>
+    <row r="596" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A596" s="2"/>
+      <c r="B596" s="2"/>
+      <c r="C596" s="2"/>
+      <c r="D596" s="2"/>
+      <c r="E596" s="2"/>
+      <c r="F596" s="2"/>
+      <c r="G596" s="2"/>
+      <c r="H596" s="2"/>
+      <c r="I596" s="2"/>
+      <c r="J596" s="2"/>
+      <c r="K596" s="2"/>
+      <c r="L596" s="2"/>
+      <c r="M596" s="2"/>
+      <c r="N596" s="2"/>
+      <c r="O596" s="2"/>
+      <c r="P596" s="2"/>
+    </row>
+    <row r="597" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A597" s="2"/>
+      <c r="B597" s="2"/>
+      <c r="C597" s="2"/>
+      <c r="D597" s="2"/>
+      <c r="E597" s="2"/>
+      <c r="F597" s="2"/>
+      <c r="G597" s="2"/>
+      <c r="H597" s="2"/>
+      <c r="I597" s="2"/>
+      <c r="J597" s="2"/>
+      <c r="K597" s="2"/>
+      <c r="L597" s="2"/>
+      <c r="M597" s="2"/>
+      <c r="N597" s="2"/>
+      <c r="O597" s="2"/>
+      <c r="P597" s="2"/>
+    </row>
+    <row r="598" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A598" s="2"/>
+      <c r="B598" s="2"/>
+      <c r="C598" s="2"/>
+      <c r="D598" s="2"/>
+      <c r="E598" s="2"/>
+      <c r="F598" s="2"/>
+      <c r="G598" s="2"/>
+      <c r="H598" s="2"/>
+      <c r="I598" s="2"/>
+      <c r="J598" s="2"/>
+      <c r="K598" s="2"/>
+      <c r="L598" s="2"/>
+      <c r="M598" s="2"/>
+      <c r="N598" s="2"/>
+      <c r="O598" s="2"/>
+      <c r="P598" s="2"/>
+    </row>
+    <row r="599" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A599" s="2"/>
+      <c r="B599" s="2"/>
+      <c r="C599" s="2"/>
+      <c r="D599" s="2"/>
+      <c r="E599" s="2"/>
+      <c r="F599" s="2"/>
+      <c r="G599" s="2"/>
+      <c r="H599" s="2"/>
+      <c r="I599" s="2"/>
+      <c r="J599" s="2"/>
+      <c r="K599" s="2"/>
+      <c r="L599" s="2"/>
+      <c r="M599" s="2"/>
+      <c r="N599" s="2"/>
+      <c r="O599" s="2"/>
+      <c r="P599" s="2"/>
+    </row>
+    <row r="600" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A600" s="2"/>
+      <c r="B600" s="2"/>
+      <c r="C600" s="2"/>
+      <c r="D600" s="2"/>
+      <c r="E600" s="2"/>
+      <c r="F600" s="2"/>
+      <c r="G600" s="2"/>
+      <c r="H600" s="2"/>
+      <c r="I600" s="2"/>
+      <c r="J600" s="2"/>
+      <c r="K600" s="2"/>
+      <c r="L600" s="2"/>
+      <c r="M600" s="2"/>
+      <c r="N600" s="2"/>
+      <c r="O600" s="2"/>
+      <c r="P600" s="2"/>
+    </row>
+    <row r="601" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A601" s="2"/>
+      <c r="B601" s="2"/>
+      <c r="C601" s="2"/>
+      <c r="D601" s="2"/>
+      <c r="E601" s="2"/>
+      <c r="F601" s="2"/>
+      <c r="G601" s="2"/>
+      <c r="H601" s="2"/>
+      <c r="I601" s="2"/>
+      <c r="J601" s="2"/>
+      <c r="K601" s="2"/>
+      <c r="L601" s="2"/>
+      <c r="M601" s="2"/>
+      <c r="N601" s="2"/>
+      <c r="O601" s="2"/>
+      <c r="P601" s="2"/>
+    </row>
+    <row r="602" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A602" s="2"/>
+      <c r="B602" s="2"/>
+      <c r="C602" s="2"/>
+      <c r="D602" s="2"/>
+      <c r="E602" s="2"/>
+      <c r="F602" s="2"/>
+      <c r="G602" s="2"/>
+      <c r="H602" s="2"/>
+      <c r="I602" s="2"/>
+      <c r="J602" s="2"/>
+      <c r="K602" s="2"/>
+      <c r="L602" s="2"/>
+      <c r="M602" s="2"/>
+      <c r="N602" s="2"/>
+      <c r="O602" s="2"/>
+      <c r="P602" s="2"/>
+    </row>
+    <row r="603" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A603" s="2"/>
+      <c r="B603" s="2"/>
+      <c r="C603" s="2"/>
+      <c r="D603" s="2"/>
+      <c r="E603" s="2"/>
+      <c r="F603" s="2"/>
+      <c r="G603" s="2"/>
+      <c r="H603" s="2"/>
+      <c r="I603" s="2"/>
+      <c r="J603" s="2"/>
+      <c r="K603" s="2"/>
+      <c r="L603" s="2"/>
+      <c r="M603" s="2"/>
+      <c r="N603" s="2"/>
+      <c r="O603" s="2"/>
+      <c r="P603" s="2"/>
+    </row>
+    <row r="604" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A604" s="2"/>
+      <c r="B604" s="2"/>
+      <c r="C604" s="2"/>
+      <c r="D604" s="2"/>
+      <c r="E604" s="2"/>
+      <c r="F604" s="2"/>
+      <c r="G604" s="2"/>
+      <c r="H604" s="2"/>
+      <c r="I604" s="2"/>
+      <c r="J604" s="2"/>
+      <c r="K604" s="2"/>
+      <c r="L604" s="2"/>
+      <c r="M604" s="2"/>
+      <c r="N604" s="2"/>
+      <c r="O604" s="2"/>
+      <c r="P604" s="2"/>
+    </row>
+    <row r="605" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A605" s="2"/>
+      <c r="B605" s="2"/>
+      <c r="C605" s="2"/>
+      <c r="D605" s="2"/>
+      <c r="E605" s="2"/>
+      <c r="F605" s="2"/>
+      <c r="G605" s="2"/>
+      <c r="H605" s="2"/>
+      <c r="I605" s="2"/>
+      <c r="J605" s="2"/>
+      <c r="K605" s="2"/>
+      <c r="L605" s="2"/>
+      <c r="M605" s="2"/>
+      <c r="N605" s="2"/>
+      <c r="O605" s="2"/>
+      <c r="P605" s="2"/>
+    </row>
+    <row r="606" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A606" s="2"/>
+      <c r="B606" s="2"/>
+      <c r="C606" s="2"/>
+      <c r="D606" s="2"/>
+      <c r="E606" s="2"/>
+      <c r="F606" s="2"/>
+      <c r="G606" s="2"/>
+      <c r="H606" s="2"/>
+      <c r="I606" s="2"/>
+      <c r="J606" s="2"/>
+      <c r="K606" s="2"/>
+      <c r="L606" s="2"/>
+      <c r="M606" s="2"/>
+      <c r="N606" s="2"/>
+      <c r="O606" s="2"/>
+      <c r="P606" s="2"/>
+    </row>
+    <row r="607" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A607" s="2"/>
+      <c r="B607" s="2"/>
+      <c r="C607" s="2"/>
+      <c r="D607" s="2"/>
+      <c r="E607" s="2"/>
+      <c r="F607" s="2"/>
+      <c r="G607" s="2"/>
+      <c r="H607" s="2"/>
+      <c r="I607" s="2"/>
+      <c r="J607" s="2"/>
+      <c r="K607" s="2"/>
+      <c r="L607" s="2"/>
+      <c r="M607" s="2"/>
+      <c r="N607" s="2"/>
+      <c r="O607" s="2"/>
+      <c r="P607" s="2"/>
+    </row>
+    <row r="608" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A608" s="2"/>
+      <c r="B608" s="2"/>
+      <c r="C608" s="2"/>
+      <c r="D608" s="2"/>
+      <c r="E608" s="2"/>
+      <c r="F608" s="2"/>
+      <c r="G608" s="2"/>
+      <c r="H608" s="2"/>
+      <c r="I608" s="2"/>
+      <c r="J608" s="2"/>
+      <c r="K608" s="2"/>
+      <c r="L608" s="2"/>
+      <c r="M608" s="2"/>
+      <c r="N608" s="2"/>
+      <c r="O608" s="2"/>
+      <c r="P608" s="2"/>
+    </row>
+    <row r="609" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A609" s="2"/>
+      <c r="B609" s="2"/>
+      <c r="C609" s="2"/>
+      <c r="D609" s="2"/>
+      <c r="E609" s="2"/>
+      <c r="F609" s="2"/>
+      <c r="G609" s="2"/>
+      <c r="H609" s="2"/>
+      <c r="I609" s="2"/>
+      <c r="J609" s="2"/>
+      <c r="K609" s="2"/>
+      <c r="L609" s="2"/>
+      <c r="M609" s="2"/>
+      <c r="N609" s="2"/>
+      <c r="O609" s="2"/>
+      <c r="P609" s="2"/>
+    </row>
+    <row r="610" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A610" s="2"/>
+      <c r="B610" s="2"/>
+      <c r="C610" s="2"/>
+      <c r="D610" s="2"/>
+      <c r="E610" s="2"/>
+      <c r="F610" s="2"/>
+      <c r="G610" s="2"/>
+      <c r="H610" s="2"/>
+      <c r="I610" s="2"/>
+      <c r="J610" s="2"/>
+      <c r="K610" s="2"/>
+      <c r="L610" s="2"/>
+      <c r="M610" s="2"/>
+      <c r="N610" s="2"/>
+      <c r="O610" s="2"/>
+      <c r="P610" s="2"/>
+    </row>
+    <row r="611" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A611" s="2"/>
+      <c r="B611" s="2"/>
+      <c r="C611" s="2"/>
+      <c r="D611" s="2"/>
+      <c r="E611" s="2"/>
+      <c r="F611" s="2"/>
+      <c r="G611" s="2"/>
+      <c r="H611" s="2"/>
+      <c r="I611" s="2"/>
+      <c r="J611" s="2"/>
+      <c r="K611" s="2"/>
+      <c r="L611" s="2"/>
+      <c r="M611" s="2"/>
+      <c r="N611" s="2"/>
+      <c r="O611" s="2"/>
+      <c r="P611" s="2"/>
+    </row>
+    <row r="612" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A612" s="2"/>
+      <c r="B612" s="2"/>
+      <c r="C612" s="2"/>
+      <c r="D612" s="2"/>
+      <c r="E612" s="2"/>
+      <c r="F612" s="2"/>
+      <c r="G612" s="2"/>
+      <c r="H612" s="2"/>
+      <c r="I612" s="2"/>
+      <c r="J612" s="2"/>
+      <c r="K612" s="2"/>
+      <c r="L612" s="2"/>
+      <c r="M612" s="2"/>
+      <c r="N612" s="2"/>
+      <c r="O612" s="2"/>
+      <c r="P612" s="2"/>
+    </row>
+    <row r="613" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A613" s="2"/>
+      <c r="B613" s="2"/>
+      <c r="C613" s="2"/>
+      <c r="D613" s="2"/>
+      <c r="E613" s="2"/>
+      <c r="F613" s="2"/>
+      <c r="G613" s="2"/>
+      <c r="H613" s="2"/>
+      <c r="I613" s="2"/>
+      <c r="J613" s="2"/>
+      <c r="K613" s="2"/>
+      <c r="L613" s="2"/>
+      <c r="M613" s="2"/>
+      <c r="N613" s="2"/>
+      <c r="O613" s="2"/>
+      <c r="P613" s="2"/>
+    </row>
+    <row r="614" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A614" s="2"/>
+      <c r="B614" s="2"/>
+      <c r="C614" s="2"/>
+      <c r="D614" s="2"/>
+      <c r="E614" s="2"/>
+      <c r="F614" s="2"/>
+      <c r="G614" s="2"/>
+      <c r="H614" s="2"/>
+      <c r="I614" s="2"/>
+      <c r="J614" s="2"/>
+      <c r="K614" s="2"/>
+      <c r="L614" s="2"/>
+      <c r="M614" s="2"/>
+      <c r="N614" s="2"/>
+      <c r="O614" s="2"/>
+      <c r="P614" s="2"/>
+    </row>
+    <row r="615" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A615" s="2"/>
+      <c r="B615" s="2"/>
+      <c r="C615" s="2"/>
+      <c r="D615" s="2"/>
+      <c r="E615" s="2"/>
+      <c r="F615" s="2"/>
+      <c r="G615" s="2"/>
+      <c r="H615" s="2"/>
+      <c r="I615" s="2"/>
+      <c r="J615" s="2"/>
+      <c r="K615" s="2"/>
+      <c r="L615" s="2"/>
+      <c r="M615" s="2"/>
+      <c r="N615" s="2"/>
+      <c r="O615" s="2"/>
+      <c r="P615" s="2"/>
+    </row>
+    <row r="616" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A616" s="2"/>
+      <c r="B616" s="2"/>
+      <c r="C616" s="2"/>
+      <c r="D616" s="2"/>
+      <c r="E616" s="2"/>
+      <c r="F616" s="2"/>
+      <c r="G616" s="2"/>
+      <c r="H616" s="2"/>
+      <c r="I616" s="2"/>
+      <c r="J616" s="2"/>
+      <c r="K616" s="2"/>
+      <c r="L616" s="2"/>
+      <c r="M616" s="2"/>
+      <c r="N616" s="2"/>
+      <c r="O616" s="2"/>
+      <c r="P616" s="2"/>
+    </row>
+    <row r="617" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A617" s="2"/>
+      <c r="B617" s="2"/>
+      <c r="C617" s="2"/>
+      <c r="D617" s="2"/>
+      <c r="E617" s="2"/>
+      <c r="F617" s="2"/>
+      <c r="G617" s="2"/>
+      <c r="H617" s="2"/>
+      <c r="I617" s="2"/>
+      <c r="J617" s="2"/>
+      <c r="K617" s="2"/>
+      <c r="L617" s="2"/>
+      <c r="M617" s="2"/>
+      <c r="N617" s="2"/>
+      <c r="O617" s="2"/>
+      <c r="P617" s="2"/>
+    </row>
+    <row r="618" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A618" s="2"/>
+      <c r="B618" s="2"/>
+      <c r="C618" s="2"/>
+      <c r="D618" s="2"/>
+      <c r="E618" s="2"/>
+      <c r="F618" s="2"/>
+      <c r="G618" s="2"/>
+      <c r="H618" s="2"/>
+      <c r="I618" s="2"/>
+      <c r="J618" s="2"/>
+      <c r="K618" s="2"/>
+      <c r="L618" s="2"/>
+      <c r="M618" s="2"/>
+      <c r="N618" s="2"/>
+      <c r="O618" s="2"/>
+      <c r="P618" s="2"/>
+    </row>
+    <row r="619" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A619" s="2"/>
+      <c r="B619" s="2"/>
+      <c r="C619" s="2"/>
+      <c r="D619" s="2"/>
+      <c r="E619" s="2"/>
+      <c r="F619" s="2"/>
+      <c r="G619" s="2"/>
+      <c r="H619" s="2"/>
+      <c r="I619" s="2"/>
+      <c r="J619" s="2"/>
+      <c r="K619" s="2"/>
+      <c r="L619" s="2"/>
+      <c r="M619" s="2"/>
+      <c r="N619" s="2"/>
+      <c r="O619" s="2"/>
+      <c r="P619" s="2"/>
+    </row>
+    <row r="620" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A620" s="2"/>
+      <c r="B620" s="2"/>
+      <c r="C620" s="2"/>
+      <c r="D620" s="2"/>
+      <c r="E620" s="2"/>
+      <c r="F620" s="2"/>
+      <c r="G620" s="2"/>
+      <c r="H620" s="2"/>
+      <c r="I620" s="2"/>
+      <c r="J620" s="2"/>
+      <c r="K620" s="2"/>
+      <c r="L620" s="2"/>
+      <c r="M620" s="2"/>
+      <c r="N620" s="2"/>
+      <c r="O620" s="2"/>
+      <c r="P620" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="25">
+    <mergeCell ref="F539:I540"/>
+    <mergeCell ref="F541:I542"/>
+    <mergeCell ref="F543:I544"/>
+    <mergeCell ref="F558:I559"/>
+    <mergeCell ref="F573:J574"/>
+    <mergeCell ref="F455:J458"/>
+    <mergeCell ref="F493:J494"/>
     <mergeCell ref="F415:J416"/>
     <mergeCell ref="F417:J418"/>
     <mergeCell ref="F89:J90"/>
@@ -14978,6 +20231,7 @@
     <mergeCell ref="F133:J134"/>
     <mergeCell ref="F185:J186"/>
     <mergeCell ref="F229:J230"/>
+    <mergeCell ref="F394:J395"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
